--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86562700-60BC-C346-8789-629B7060B3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0551C71B-B1AC-AB4A-9325-86CA76F90450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1300" windowWidth="27640" windowHeight="16940" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -63,12 +63,111 @@
   <si>
     <t xml:space="preserve">Health &amp; Fitness </t>
   </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>App Functionality</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Product Personalization</t>
+  </si>
+  <si>
+    <t>Developer's Advertising or Marketing</t>
+  </si>
+  <si>
+    <t>Third-Party Advertising</t>
+  </si>
+  <si>
+    <t>All Apps</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Photo &amp; Video</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Social Networking</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Design</t>
+  </si>
+  <si>
+    <t>Magazines &amp; Newspapers</t>
+  </si>
+  <si>
+    <t>Developer Tools</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +300,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -545,8 +650,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1517,7 +1623,5761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ios Collection Purposes by Categories</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All Apps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$L$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-375D-9242-88F5-E3E91AF8684B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1532156719"/>
+        <c:axId val="1266638880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1532156719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266638880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1266638880"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1532156719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$2:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$W$2:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$X$2:$X$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$Y$2:$Y$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$Z$2:$Z$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AA$2:$AA$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2:$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Business</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reference</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Weather</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AB$2:$AB$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5EAB-7A42-BEDA-3FC1225492E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1258906944"/>
+        <c:axId val="1259174000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1258906944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1259174000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1259174000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258906944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$2:$AB$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$3:$AB$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$5:$AB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$6:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$8:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$9:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$10:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Productivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$11:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Social Networking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$12:$AB$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$13:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health &amp; Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$14:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$15:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$16:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>News</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$17:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$18:$AB$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$19:$AB$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Books</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$20:$AB$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$21:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Navigation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$22:$AB$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$23:$AB$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graphics &amp; Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$24:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Magazines &amp; Newspapers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$25:$AB$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$U$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Developer Tools</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Purposes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$V$26:$AB$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-52CE-7B4F-9679-B22486D07471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1809916255"/>
+        <c:axId val="1810333103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1809916255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810333103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1810333103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809916255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2060,6 +7920,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2093,6 +9462,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39204</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467139</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9CFAAE-C2DD-4069-FA18-3A34E223E47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>550332</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>143932</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956940CC-8D07-EA1A-E79C-2917FDFC66EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>248140</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B72704-F1F4-0AE2-85CA-E9E696710025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2418,15 +9895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD0D29-16B8-7348-A310-D8DA5203AA8C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2451,8 +9928,56 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +10002,56 @@
       <c r="H2">
         <v>4177</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30092</v>
+      </c>
+      <c r="M2" s="1">
+        <v>25887</v>
+      </c>
+      <c r="N2" s="1">
+        <v>23309</v>
+      </c>
+      <c r="O2" s="1">
+        <v>15824</v>
+      </c>
+      <c r="P2" s="1">
+        <v>12584</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10255</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4177</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2">
+        <v>5972</v>
+      </c>
+      <c r="W2">
+        <v>3464</v>
+      </c>
+      <c r="X2">
+        <v>3208</v>
+      </c>
+      <c r="Y2">
+        <v>3072</v>
+      </c>
+      <c r="Z2">
+        <v>2054</v>
+      </c>
+      <c r="AA2">
+        <v>1831</v>
+      </c>
+      <c r="AB2">
+        <v>673</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2503,8 +10076,56 @@
       <c r="H3">
         <v>673</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3072</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5972</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3464</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1831</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2054</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3208</v>
+      </c>
+      <c r="R3" s="1">
+        <v>673</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>754</v>
+      </c>
+      <c r="W3">
+        <v>1206</v>
+      </c>
+      <c r="X3">
+        <v>298</v>
+      </c>
+      <c r="Y3">
+        <v>1650</v>
+      </c>
+      <c r="Z3">
+        <v>634</v>
+      </c>
+      <c r="AA3">
+        <v>718</v>
+      </c>
+      <c r="AB3">
+        <v>232</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2529,8 +10150,56 @@
       <c r="H4">
         <v>279</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1650</v>
+      </c>
+      <c r="M4" s="1">
+        <v>754</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1206</v>
+      </c>
+      <c r="O4" s="1">
+        <v>718</v>
+      </c>
+      <c r="P4" s="1">
+        <v>634</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>298</v>
+      </c>
+      <c r="R4" s="1">
+        <v>232</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>2522</v>
+      </c>
+      <c r="W4">
+        <v>2637</v>
+      </c>
+      <c r="X4">
+        <v>710</v>
+      </c>
+      <c r="Y4">
+        <v>3626</v>
+      </c>
+      <c r="Z4">
+        <v>1310</v>
+      </c>
+      <c r="AA4">
+        <v>2479</v>
+      </c>
+      <c r="AB4">
+        <v>399</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2555,8 +10224,56 @@
       <c r="H5">
         <v>399</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3626</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2522</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2637</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2479</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1310</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>710</v>
+      </c>
+      <c r="R5" s="1">
+        <v>399</v>
+      </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>1054</v>
+      </c>
+      <c r="W5">
+        <v>504</v>
+      </c>
+      <c r="X5">
+        <v>315</v>
+      </c>
+      <c r="Y5">
+        <v>511</v>
+      </c>
+      <c r="Z5">
+        <v>243</v>
+      </c>
+      <c r="AA5">
+        <v>216</v>
+      </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2581,8 +10298,56 @@
       <c r="H6">
         <v>238</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1">
+        <v>511</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1054</v>
+      </c>
+      <c r="N6" s="1">
+        <v>504</v>
+      </c>
+      <c r="O6" s="1">
+        <v>216</v>
+      </c>
+      <c r="P6" s="1">
+        <v>243</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>315</v>
+      </c>
+      <c r="R6" s="1">
+        <v>75</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6">
+        <v>908</v>
+      </c>
+      <c r="W6">
+        <v>1464</v>
+      </c>
+      <c r="X6">
+        <v>259</v>
+      </c>
+      <c r="Y6">
+        <v>2072</v>
+      </c>
+      <c r="Z6">
+        <v>1098</v>
+      </c>
+      <c r="AA6">
+        <v>1346</v>
+      </c>
+      <c r="AB6">
+        <v>235</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2606,6 +10371,548 @@
       </c>
       <c r="H7">
         <v>258</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2072</v>
+      </c>
+      <c r="M7" s="1">
+        <v>908</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1464</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1346</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1098</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>259</v>
+      </c>
+      <c r="R7" s="1">
+        <v>235</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7">
+        <v>1036</v>
+      </c>
+      <c r="W7">
+        <v>1381</v>
+      </c>
+      <c r="X7">
+        <v>352</v>
+      </c>
+      <c r="Y7">
+        <v>2100</v>
+      </c>
+      <c r="Z7">
+        <v>704</v>
+      </c>
+      <c r="AA7">
+        <v>971</v>
+      </c>
+      <c r="AB7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8">
+        <v>617</v>
+      </c>
+      <c r="W8">
+        <v>457</v>
+      </c>
+      <c r="X8">
+        <v>279</v>
+      </c>
+      <c r="Y8">
+        <v>493</v>
+      </c>
+      <c r="Z8">
+        <v>255</v>
+      </c>
+      <c r="AA8">
+        <v>253</v>
+      </c>
+      <c r="AB8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9">
+        <v>1259</v>
+      </c>
+      <c r="W9">
+        <v>858</v>
+      </c>
+      <c r="X9">
+        <v>536</v>
+      </c>
+      <c r="Y9">
+        <v>961</v>
+      </c>
+      <c r="Z9">
+        <v>481</v>
+      </c>
+      <c r="AA9">
+        <v>556</v>
+      </c>
+      <c r="AB9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>1232</v>
+      </c>
+      <c r="W10">
+        <v>1796</v>
+      </c>
+      <c r="X10">
+        <v>433</v>
+      </c>
+      <c r="Y10">
+        <v>2451</v>
+      </c>
+      <c r="Z10">
+        <v>849</v>
+      </c>
+      <c r="AA10">
+        <v>1377</v>
+      </c>
+      <c r="AB10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11">
+        <v>794</v>
+      </c>
+      <c r="W11">
+        <v>809</v>
+      </c>
+      <c r="X11">
+        <v>242</v>
+      </c>
+      <c r="Y11">
+        <v>1118</v>
+      </c>
+      <c r="Z11">
+        <v>307</v>
+      </c>
+      <c r="AA11">
+        <v>370</v>
+      </c>
+      <c r="AB11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12">
+        <v>1167</v>
+      </c>
+      <c r="W12">
+        <v>1204</v>
+      </c>
+      <c r="X12">
+        <v>447</v>
+      </c>
+      <c r="Y12">
+        <v>1945</v>
+      </c>
+      <c r="Z12">
+        <v>523</v>
+      </c>
+      <c r="AA12">
+        <v>1004</v>
+      </c>
+      <c r="AB12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13">
+        <v>1108</v>
+      </c>
+      <c r="W13">
+        <v>647</v>
+      </c>
+      <c r="X13">
+        <v>359</v>
+      </c>
+      <c r="Y13">
+        <v>739</v>
+      </c>
+      <c r="Z13">
+        <v>219</v>
+      </c>
+      <c r="AA13">
+        <v>216</v>
+      </c>
+      <c r="AB13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14">
+        <v>1113</v>
+      </c>
+      <c r="W14">
+        <v>1584</v>
+      </c>
+      <c r="X14">
+        <v>377</v>
+      </c>
+      <c r="Y14">
+        <v>2087</v>
+      </c>
+      <c r="Z14">
+        <v>823</v>
+      </c>
+      <c r="AA14">
+        <v>1110</v>
+      </c>
+      <c r="AB14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15">
+        <v>132</v>
+      </c>
+      <c r="W15">
+        <v>312</v>
+      </c>
+      <c r="X15">
+        <v>37</v>
+      </c>
+      <c r="Y15">
+        <v>418</v>
+      </c>
+      <c r="Z15">
+        <v>128</v>
+      </c>
+      <c r="AA15">
+        <v>187</v>
+      </c>
+      <c r="AB15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16">
+        <v>860</v>
+      </c>
+      <c r="W16">
+        <v>835</v>
+      </c>
+      <c r="X16">
+        <v>297</v>
+      </c>
+      <c r="Y16">
+        <v>1097</v>
+      </c>
+      <c r="Z16">
+        <v>366</v>
+      </c>
+      <c r="AA16">
+        <v>465</v>
+      </c>
+      <c r="AB16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17">
+        <v>1791</v>
+      </c>
+      <c r="W17">
+        <v>957</v>
+      </c>
+      <c r="X17">
+        <v>769</v>
+      </c>
+      <c r="Y17">
+        <v>1392</v>
+      </c>
+      <c r="Z17">
+        <v>955</v>
+      </c>
+      <c r="AA17">
+        <v>680</v>
+      </c>
+      <c r="AB17">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18">
+        <v>804</v>
+      </c>
+      <c r="W18">
+        <v>1091</v>
+      </c>
+      <c r="X18">
+        <v>334</v>
+      </c>
+      <c r="Y18">
+        <v>1599</v>
+      </c>
+      <c r="Z18">
+        <v>680</v>
+      </c>
+      <c r="AA18">
+        <v>825</v>
+      </c>
+      <c r="AB18">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19">
+        <v>447</v>
+      </c>
+      <c r="W19">
+        <v>286</v>
+      </c>
+      <c r="X19">
+        <v>190</v>
+      </c>
+      <c r="Y19">
+        <v>316</v>
+      </c>
+      <c r="Z19">
+        <v>134</v>
+      </c>
+      <c r="AA19">
+        <v>155</v>
+      </c>
+      <c r="AB19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20">
+        <v>309</v>
+      </c>
+      <c r="W20">
+        <v>200</v>
+      </c>
+      <c r="X20">
+        <v>112</v>
+      </c>
+      <c r="Y20">
+        <v>243</v>
+      </c>
+      <c r="Z20">
+        <v>111</v>
+      </c>
+      <c r="AA20">
+        <v>159</v>
+      </c>
+      <c r="AB20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21">
+        <v>662</v>
+      </c>
+      <c r="W21">
+        <v>235</v>
+      </c>
+      <c r="X21">
+        <v>250</v>
+      </c>
+      <c r="Y21">
+        <v>328</v>
+      </c>
+      <c r="Z21">
+        <v>85</v>
+      </c>
+      <c r="AA21">
+        <v>90</v>
+      </c>
+      <c r="AB21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22">
+        <v>410</v>
+      </c>
+      <c r="W22">
+        <v>382</v>
+      </c>
+      <c r="X22">
+        <v>166</v>
+      </c>
+      <c r="Y22">
+        <v>563</v>
+      </c>
+      <c r="Z22">
+        <v>204</v>
+      </c>
+      <c r="AA22">
+        <v>199</v>
+      </c>
+      <c r="AB22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23">
+        <v>284</v>
+      </c>
+      <c r="W23">
+        <v>660</v>
+      </c>
+      <c r="X23">
+        <v>104</v>
+      </c>
+      <c r="Y23">
+        <v>944</v>
+      </c>
+      <c r="Z23">
+        <v>275</v>
+      </c>
+      <c r="AA23">
+        <v>460</v>
+      </c>
+      <c r="AB23">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>44</v>
+      </c>
+      <c r="V24">
+        <v>517</v>
+      </c>
+      <c r="W24">
+        <v>214</v>
+      </c>
+      <c r="X24">
+        <v>143</v>
+      </c>
+      <c r="Y24">
+        <v>225</v>
+      </c>
+      <c r="Z24">
+        <v>89</v>
+      </c>
+      <c r="AA24">
+        <v>80</v>
+      </c>
+      <c r="AB24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25">
+        <v>83</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <v>112</v>
+      </c>
+      <c r="Z25">
+        <v>51</v>
+      </c>
+      <c r="AA25">
+        <v>68</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="21:28" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26">
+        <v>52</v>
+      </c>
+      <c r="W26">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
+      <c r="Y26">
+        <v>30</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
+        <v>9</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0551C71B-B1AC-AB4A-9325-86CA76F90450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B0575D2-5B09-DE44-96A8-A48CAC0B5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -161,6 +162,105 @@
   </si>
   <si>
     <t>Developer Tools</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Sensitive Info</t>
+  </si>
+  <si>
+    <t>Search History</t>
+  </si>
+  <si>
+    <t>Purchase History</t>
+  </si>
+  <si>
+    <t>Product Interaction</t>
+  </si>
+  <si>
+    <t>Precise Location</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>Photos or Videos</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Performance Data</t>
+  </si>
+  <si>
+    <t>Payment Info</t>
+  </si>
+  <si>
+    <t>Other User Content</t>
+  </si>
+  <si>
+    <t>Other User Contact Info</t>
+  </si>
+  <si>
+    <t>Other Usage Data</t>
+  </si>
+  <si>
+    <t>Other Financial Info</t>
+  </si>
+  <si>
+    <t>Other Diagnostic Data</t>
+  </si>
+  <si>
+    <t>Other Data Types</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Gameplay Content</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Emails or Text Messages</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Credit Info</t>
+  </si>
+  <si>
+    <t>Crash Data</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Coarse Location</t>
+  </si>
+  <si>
+    <t>Browsing History</t>
+  </si>
+  <si>
+    <t>Audio Data</t>
+  </si>
+  <si>
+    <t>Advertising Data</t>
+  </si>
+  <si>
+    <t>Identifers</t>
   </si>
 </sst>
 </file>
@@ -750,12 +850,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Purposes by</a:t>
+              <a:t>Purposes x</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Categories</a:t>
+              <a:t> top</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Categories (number of Apps)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1658,7 +1763,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ios Collection Purposes by Categories</a:t>
+              <a:t>ios Collection Purposes by x top Categories (by rating)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9897,8 +10002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD0D29-16B8-7348-A310-D8DA5203AA8C}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10919,4 +11024,881 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1415484-0793-3A44-A308-0858D3EC5F7F}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B0575D2-5B09-DE44-96A8-A48CAC0B5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C241D9-8848-FF47-A986-2F75E215B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="data types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="88">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>Identifers</t>
+  </si>
+  <si>
+    <t>Contact Info</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Financial Info</t>
+  </si>
+  <si>
+    <t>User Content</t>
+  </si>
+  <si>
+    <t>Usage Data</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>could combine as financial info</t>
   </si>
 </sst>
 </file>
@@ -11028,10 +11052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1415484-0793-3A44-A308-0858D3EC5F7F}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11040,9 +11064,15 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -11061,8 +11091,17 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11084,11 +11123,23 @@
       <c r="G2" t="s">
         <v>78</v>
       </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11111,13 +11162,13 @@
         <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11140,13 +11191,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11169,13 +11223,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11198,10 +11252,25 @@
         <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11224,10 +11293,13 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11250,10 +11322,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11276,10 +11351,16 @@
         <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11302,10 +11383,16 @@
         <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11327,8 +11414,17 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11350,8 +11446,17 @@
       <c r="G12" t="s">
         <v>68</v>
       </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11374,10 +11479,13 @@
         <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11399,11 +11507,8 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11425,11 +11530,8 @@
       <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11452,7 +11554,7 @@
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -11478,7 +11580,7 @@
         <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -11504,7 +11606,7 @@
         <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -11530,7 +11632,7 @@
         <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -11556,7 +11658,7 @@
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -11582,7 +11684,7 @@
         <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -11608,7 +11710,7 @@
         <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -11634,7 +11736,7 @@
         <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -11660,7 +11762,7 @@
         <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -11685,8 +11787,11 @@
       <c r="G25" t="s">
         <v>55</v>
       </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -11712,7 +11817,7 @@
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -11738,7 +11843,7 @@
         <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -11764,7 +11869,7 @@
         <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -11790,7 +11895,7 @@
         <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -11816,7 +11921,7 @@
         <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -11842,7 +11947,7 @@
         <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -11868,7 +11973,7 @@
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -11894,6 +11999,41 @@
         <v>47</v>
       </c>
       <c r="J33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
         <v>48</v>
       </c>
     </row>

--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C241D9-8848-FF47-A986-2F75E215B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B16D-0C6D-F14D-B359-2CCBD4E15098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
     <sheet name="data types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -730,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -773,12 +786,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -818,6 +833,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2670,1574 +2686,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tracking</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$V$2:$V$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>5972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>754</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2522</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>617</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1232</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>794</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1167</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1108</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1791</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Analytics</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$W$2:$W$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3464</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1206</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1381</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>858</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>809</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1204</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1584</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1091</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Third-Party Advertising</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$X$2:$X$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$Y$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>App Functionality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$Y$2:$Y$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3626</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2451</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2087</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1392</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Developer's Advertising or Marketing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$Z$2:$Z$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>823</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>955</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Product Personalization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$AA$2:$AA$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1831</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2479</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ios_purposes!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Other Purposes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ios_purposes!$U$2:$U$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Games</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Shopping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Photo &amp; Video</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Food &amp; Drink</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Travel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lifestyle</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Productivity</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Social Networking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Utilities</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Health &amp; Fitness</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Education</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sports</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Reference</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Books</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Weather</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Navigation</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Medical</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Graphics &amp; Design</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Magazines &amp; Newspapers</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Developer Tools</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ios_purposes!$AB$2:$AB$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5EAB-7A42-BEDA-3FC1225492E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1258906944"/>
-        <c:axId val="1259174000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1258906944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4249,170 +2704,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ios Purposes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x Category (number of apps)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1259174000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1259174000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1258906944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7300,6 +5603,847 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1809916255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ios Category</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x Purposes (percentage)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Developer's Advertising or Marketing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AF$2:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28360000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analytics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AG$2:$AG$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37809999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>App Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AH$2:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53510000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tracking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AJ$2:$AJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23449999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Third-Party Advertising</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AK$2:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ios_purposes!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product Personalization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ios_purposes!$AE$2:$AE$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ios_purposes!$AL$2:$AL$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34760000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C15E-8A43-B51B-2418326C725A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="611075200"/>
+        <c:axId val="611240736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="611075200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611240736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611240736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611075200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9634,23 +8778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>550332</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>143932</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>17650</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>16282</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956940CC-8D07-EA1A-E79C-2917FDFC66EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B72704-F1F4-0AE2-85CA-E9E696710025}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9670,23 +8814,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46519</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>48558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>248140</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>18675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B72704-F1F4-0AE2-85CA-E9E696710025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B56DC1-8CE3-EC67-7CFB-BEC931E207DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10024,15 +9168,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD0D29-16B8-7348-A310-D8DA5203AA8C}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="W1" zoomScale="75" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10105,8 +9249,32 @@
       <c r="AB1" t="s">
         <v>7</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -10155,7 +9323,7 @@
       <c r="R2" s="1">
         <v>4177</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V2">
@@ -10179,8 +9347,32 @@
       <c r="AB2">
         <v>673</v>
       </c>
+      <c r="AE2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.1981</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.17660000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -10229,7 +9421,7 @@
       <c r="R3" s="1">
         <v>673</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V3">
@@ -10253,8 +9445,32 @@
       <c r="AB3">
         <v>232</v>
       </c>
+      <c r="AE3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.3291</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.19600000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10303,7 +9519,7 @@
       <c r="R4" s="1">
         <v>232</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="V4">
@@ -10327,8 +9543,32 @@
       <c r="AB4">
         <v>399</v>
       </c>
+      <c r="AE4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.45200000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -10377,7 +9617,7 @@
       <c r="R5" s="1">
         <v>399</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="V5">
@@ -10401,8 +9641,32 @@
       <c r="AB5">
         <v>75</v>
       </c>
+      <c r="AE5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.1845</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.1153</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>7.9100000000000004E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -10451,7 +9715,7 @@
       <c r="R6" s="1">
         <v>75</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="V6">
@@ -10475,8 +9739,32 @@
       <c r="AB6">
         <v>235</v>
       </c>
+      <c r="AE6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.34760000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -10549,8 +9837,32 @@
       <c r="AB7">
         <v>238</v>
       </c>
+      <c r="AE7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.1424</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0.19639999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U8" t="s">
         <v>28</v>
       </c>
@@ -10575,8 +9887,32 @@
       <c r="AB8">
         <v>62</v>
       </c>
+      <c r="AE8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.1741</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>8.9300000000000004E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U9" t="s">
         <v>29</v>
       </c>
@@ -10601,8 +9937,32 @@
       <c r="AB9">
         <v>125</v>
       </c>
+      <c r="AE9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.1489</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.2656</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.2974</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0.1721</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U10" t="s">
         <v>30</v>
       </c>
@@ -10627,8 +9987,32 @@
       <c r="AB10">
         <v>279</v>
       </c>
+      <c r="AE10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0.2135</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0.23860000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U11" t="s">
         <v>31</v>
       </c>
@@ -10653,8 +10037,32 @@
       <c r="AB11">
         <v>131</v>
       </c>
+      <c r="AE11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>7.46E-2</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>8.9899999999999994E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U12" t="s">
         <v>32</v>
       </c>
@@ -10679,8 +10087,32 @@
       <c r="AB12">
         <v>252</v>
       </c>
+      <c r="AE12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0.2452</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U13" t="s">
         <v>33</v>
       </c>
@@ -10705,8 +10137,32 @@
       <c r="AB13">
         <v>100</v>
       </c>
+      <c r="AE13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>5.4199999999999998E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U14" t="s">
         <v>34</v>
       </c>
@@ -10731,8 +10187,32 @@
       <c r="AB14">
         <v>258</v>
       </c>
+      <c r="AE14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.4551</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0.2427</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0.24199999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U15" t="s">
         <v>35</v>
       </c>
@@ -10757,8 +10237,32 @@
       <c r="AB15">
         <v>64</v>
       </c>
+      <c r="AE15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.4405</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0.1391</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0.19700000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="U16" t="s">
         <v>36</v>
       </c>
@@ -10783,8 +10287,32 @@
       <c r="AB16">
         <v>166</v>
       </c>
+      <c r="AE16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0.1905</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0.10299999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U17" t="s">
         <v>37</v>
       </c>
@@ -10809,8 +10337,32 @@
       <c r="AB17">
         <v>183</v>
       </c>
+      <c r="AE17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.2848</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.4143</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>5.45E-2</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0.2024</v>
+      </c>
     </row>
-    <row r="18" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U18" t="s">
         <v>38</v>
       </c>
@@ -10835,8 +10387,32 @@
       <c r="AB18">
         <v>315</v>
       </c>
+      <c r="AE18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.1729</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.40660000000000002</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0.2044</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0.20979999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U19" t="s">
         <v>39</v>
       </c>
@@ -10861,8 +10437,32 @@
       <c r="AB19">
         <v>32</v>
       </c>
+      <c r="AE19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.1661</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>8.1500000000000003E-2</v>
+      </c>
     </row>
-    <row r="20" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U20" t="s">
         <v>40</v>
       </c>
@@ -10887,8 +10487,32 @@
       <c r="AB20">
         <v>31</v>
       </c>
+      <c r="AE20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0.1239</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0.2712</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>0.17749999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U21" t="s">
         <v>41</v>
       </c>
@@ -10913,8 +10537,32 @@
       <c r="AB21">
         <v>78</v>
       </c>
+      <c r="AE21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>5.67E-2</v>
+      </c>
     </row>
-    <row r="22" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U22" t="s">
         <v>42</v>
       </c>
@@ -10939,8 +10587,32 @@
       <c r="AB22">
         <v>57</v>
       </c>
+      <c r="AE22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0.1032</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0.2848</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>0.2074</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0.1007</v>
+      </c>
     </row>
-    <row r="23" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U23" t="s">
         <v>43</v>
       </c>
@@ -10965,8 +10637,32 @@
       <c r="AB23">
         <v>154</v>
       </c>
+      <c r="AE23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0.1009</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0.2422</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>0.1042</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>0.16880000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U24" t="s">
         <v>44</v>
       </c>
@@ -10991,8 +10687,32 @@
       <c r="AB24">
         <v>31</v>
       </c>
+      <c r="AE24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>5.1299999999999998E-2</v>
+      </c>
     </row>
-    <row r="25" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U25" t="s">
         <v>45</v>
       </c>
@@ -11017,8 +10737,32 @@
       <c r="AB25">
         <v>3</v>
       </c>
+      <c r="AE25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>1.32E-2</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>8.77E-2</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>0.29820000000000002</v>
+      </c>
     </row>
-    <row r="26" spans="21:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="21:38" x14ac:dyDescent="0.2">
       <c r="U26" t="s">
         <v>46</v>
       </c>
@@ -11042,6 +10786,30 @@
       </c>
       <c r="AB26">
         <v>4</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11054,8 +10822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1415484-0793-3A44-A308-0858D3EC5F7F}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B16D-0C6D-F14D-B359-2CCBD4E15098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA625A-DEA7-D14A-AF6E-9BC56B2DFAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
-    <sheet name="data types" sheetId="2" r:id="rId2"/>
+    <sheet name="ios_data types" sheetId="3" r:id="rId2"/>
+    <sheet name="list of datatypes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="91">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -299,12 +300,21 @@
   <si>
     <t>could combine as financial info</t>
   </si>
+  <si>
+    <t>SD_all</t>
+  </si>
+  <si>
+    <t>SD_top5 categories</t>
+  </si>
+  <si>
+    <t>ANALYTICS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,8 +455,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +643,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -788,10 +811,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6530,6 +6556,1539 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Datatype</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> collected by category for the purpose of Analytics (percentage)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27265620704641097"/>
+          <c:y val="1.9390568183344999E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ios_data types'!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ios_data types'!$B$96:$AG$96</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Purchase History</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coarse Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User ID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device ID</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product Interaction</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Advertising Data</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Usage Data</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crash Data</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Performance Data</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Email Address</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Customer Support</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Diagnostic Data</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Other Data Types</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Content</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Precise Location</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Other User Content</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Other User Contact Info</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Phone Number</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Payment Info</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Physical Address</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Search History</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Emails or Text Messages</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Browsing History</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Photos or Videos</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Credit Info</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Audio Data</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Other Financial Info</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sensitive Info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ios_data types'!$B$97:$AG$97</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.4758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57509999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C225-774F-886B-FD57C276D462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ios_data types'!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ios_data types'!$B$96:$AG$96</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Purchase History</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coarse Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User ID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device ID</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product Interaction</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Advertising Data</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Usage Data</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crash Data</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Performance Data</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Email Address</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Customer Support</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Diagnostic Data</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Other Data Types</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Content</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Precise Location</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Other User Content</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Other User Contact Info</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Phone Number</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Payment Info</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Physical Address</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Search History</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Emails or Text Messages</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Browsing History</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Photos or Videos</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Credit Info</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Audio Data</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Other Financial Info</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sensitive Info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ios_data types'!$B$98:$AG$98</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.16089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.48E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.73E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C225-774F-886B-FD57C276D462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ios_data types'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ios_data types'!$B$96:$AG$96</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Purchase History</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coarse Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User ID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device ID</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product Interaction</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Advertising Data</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Usage Data</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crash Data</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Performance Data</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Email Address</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Customer Support</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Diagnostic Data</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Other Data Types</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Content</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Precise Location</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Other User Content</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Other User Contact Info</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Phone Number</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Payment Info</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Physical Address</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Search History</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Emails or Text Messages</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Browsing History</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Photos or Videos</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Credit Info</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Audio Data</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Other Financial Info</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sensitive Info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ios_data types'!$B$99:$AG$99</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.51759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2772</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C225-774F-886B-FD57C276D462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ios_data types'!$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Photo &amp; Video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ios_data types'!$B$96:$AG$96</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Purchase History</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coarse Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User ID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device ID</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product Interaction</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Advertising Data</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Usage Data</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crash Data</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Performance Data</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Email Address</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Customer Support</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Diagnostic Data</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Other Data Types</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Content</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Precise Location</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Other User Content</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Other User Contact Info</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Phone Number</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Payment Info</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Physical Address</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Search History</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Emails or Text Messages</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Browsing History</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Photos or Videos</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Credit Info</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Audio Data</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Other Financial Info</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sensitive Info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ios_data types'!$B$100:$AG$100</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.29959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.16E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.3500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C225-774F-886B-FD57C276D462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ios_data types'!$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food &amp; Drink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ios_data types'!$B$96:$AG$96</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Purchase History</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coarse Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User ID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device ID</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Product Interaction</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Advertising Data</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other Usage Data</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crash Data</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Performance Data</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Email Address</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Customer Support</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Diagnostic Data</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Other Data Types</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Content</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Precise Location</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Other User Content</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Other User Contact Info</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Phone Number</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Payment Info</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Physical Address</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Search History</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Emails or Text Messages</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Browsing History</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Photos or Videos</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Credit Info</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Audio Data</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Other Financial Info</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sensitive Info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ios_data types'!$B$101:$AG$101</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.49859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65569999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C225-774F-886B-FD57C276D462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="325939520"/>
+        <c:axId val="359364160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325939520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359364160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359364160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325939520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6651,6 +8210,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8702,6 +10301,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8843,6 +10945,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>714304</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>22549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>712983</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>155965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067CFB30-1413-72BF-E9FF-80402B7C3564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9170,8 +11313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD0D29-16B8-7348-A310-D8DA5203AA8C}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="75" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView topLeftCell="R1" zoomScale="75" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9249,28 +11392,28 @@
       <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9347,28 +11490,28 @@
       <c r="AB2">
         <v>673</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="4">
         <v>0.1981</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="4">
         <v>0.29620000000000002</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="4">
         <v>0.57589999999999997</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="4">
         <v>0.30940000000000001</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="4">
         <v>0.17660000000000001</v>
       </c>
     </row>
@@ -9445,28 +11588,28 @@
       <c r="AB3">
         <v>232</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="4">
         <v>0.3291</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="4">
         <v>0.45029999999999998</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="4">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="4">
         <v>0.20580000000000001</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="4">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="4">
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -9543,28 +11686,28 @@
       <c r="AB4">
         <v>399</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="4">
         <v>0.23880000000000001</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="4">
         <v>0.48080000000000001</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="4">
         <v>0.66110000000000002</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="4">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="4">
         <v>0.45979999999999999</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="4">
         <v>0.12939999999999999</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="4">
         <v>0.45200000000000001</v>
       </c>
     </row>
@@ -9641,28 +11784,28 @@
       <c r="AB5">
         <v>75</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="4">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="4">
         <v>0.1845</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="4">
         <v>0.187</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="4">
         <v>2.75E-2</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="4">
         <v>0.38579999999999998</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="4">
         <v>0.1153</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -9739,28 +11882,28 @@
       <c r="AB6">
         <v>235</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="4">
         <v>0.28360000000000002</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="4">
         <v>0.37809999999999999</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="4">
         <v>0.53510000000000002</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="4">
         <v>0.23449999999999999</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6" s="4">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="4">
         <v>0.34760000000000002</v>
       </c>
     </row>
@@ -9837,28 +11980,28 @@
       <c r="AB7">
         <v>238</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="4">
         <v>0.1424</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="4">
         <v>0.27929999999999999</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="4">
         <v>0.42480000000000001</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7" s="4">
         <v>0.20949999999999999</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AK7" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7" s="4">
         <v>0.19639999999999999</v>
       </c>
     </row>
@@ -9887,28 +12030,28 @@
       <c r="AB8">
         <v>62</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="4">
         <v>0.09</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="4">
         <v>0.16139999999999999</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="4">
         <v>0.1741</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="4">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8" s="4">
         <v>0.21790000000000001</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8" s="4">
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
@@ -9937,28 +12080,28 @@
       <c r="AB9">
         <v>125</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="4">
         <v>0.1489</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="4">
         <v>0.2656</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH9" s="4">
         <v>0.2974</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ9" s="4">
         <v>0.38969999999999999</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AK9" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL9" s="4">
         <v>0.1721</v>
       </c>
     </row>
@@ -9987,28 +12130,28 @@
       <c r="AB10">
         <v>279</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="4">
         <v>0.14710000000000001</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10" s="4">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AH10" s="4">
         <v>0.42470000000000002</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10" s="4">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10" s="4">
         <v>0.2135</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10" s="4">
         <v>0.23860000000000001</v>
       </c>
     </row>
@@ -10037,28 +12180,28 @@
       <c r="AB11">
         <v>131</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="4">
         <v>7.46E-2</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="4">
         <v>0.19650000000000001</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH11" s="4">
         <v>0.27160000000000001</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11" s="4">
         <v>0.19289999999999999</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11" s="4">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
@@ -10087,28 +12230,28 @@
       <c r="AB12">
         <v>252</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AE12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12" s="4">
         <v>0.29399999999999998</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH12" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="4">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AJ12" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AK12" s="4">
         <v>0.10920000000000001</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12" s="4">
         <v>0.2452</v>
       </c>
     </row>
@@ -10137,28 +12280,28 @@
       <c r="AB13">
         <v>100</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AE13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG13" s="4">
         <v>0.16220000000000001</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AH13" s="4">
         <v>0.18529999999999999</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AI13" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AJ13" s="4">
         <v>0.27779999999999999</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AK13" s="4">
         <v>0.09</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AL13" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
     </row>
@@ -10187,28 +12330,28 @@
       <c r="AB14">
         <v>258</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AE14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="4">
         <v>0.17949999999999999</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14" s="4">
         <v>0.34539999999999998</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AH14" s="4">
         <v>0.4551</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14" s="4">
         <v>0.2427</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AK14" s="4">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL14" s="4">
         <v>0.24199999999999999</v>
       </c>
     </row>
@@ -10237,28 +12380,28 @@
       <c r="AB15">
         <v>64</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AE15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="4">
         <v>0.13489999999999999</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15" s="4">
         <v>0.32879999999999998</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AH15" s="4">
         <v>0.4405</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15" s="4">
         <v>0.1391</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AK15" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15" s="4">
         <v>0.19700000000000001</v>
       </c>
     </row>
@@ -10287,28 +12430,28 @@
       <c r="AB16">
         <v>166</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AE16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16" s="4">
         <v>0.185</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AH16" s="4">
         <v>0.24299999999999999</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AI16" s="4">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AJ16" s="4">
         <v>0.1905</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AK16" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AL16" s="4">
         <v>0.10299999999999999</v>
       </c>
     </row>
@@ -10337,28 +12480,28 @@
       <c r="AB17">
         <v>183</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AE17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="4">
         <v>0.28420000000000001</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17" s="4">
         <v>0.2848</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AH17" s="4">
         <v>0.4143</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AI17" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AJ17" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AK17" s="4">
         <v>0.22889999999999999</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AL17" s="4">
         <v>0.2024</v>
       </c>
     </row>
@@ -10387,28 +12530,28 @@
       <c r="AB18">
         <v>315</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AE18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="4">
         <v>0.1729</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AG18" s="4">
         <v>0.27739999999999998</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AH18" s="4">
         <v>0.40660000000000002</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18" s="4">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AJ18" s="4">
         <v>0.2044</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AK18" s="4">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AL18" s="4">
         <v>0.20979999999999999</v>
       </c>
     </row>
@@ -10437,28 +12580,28 @@
       <c r="AB19">
         <v>32</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AE19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="4">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19" s="4">
         <v>0.15040000000000001</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AH19" s="4">
         <v>0.1661</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI19" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19" s="4">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AK19" s="4">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL19" s="4">
         <v>8.1500000000000003E-2</v>
       </c>
     </row>
@@ -10487,28 +12630,28 @@
       <c r="AB20">
         <v>31</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AE20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="4">
         <v>0.1239</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="4">
         <v>0.22320000000000001</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AH20" s="4">
         <v>0.2712</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20" s="4">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AJ20" s="4">
         <v>0.34489999999999998</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AK20" s="4">
         <v>0.125</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20" s="4">
         <v>0.17749999999999999</v>
       </c>
     </row>
@@ -10537,28 +12680,28 @@
       <c r="AB21">
         <v>78</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AH21" s="4">
         <v>0.20649999999999999</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AI21" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21" s="4">
         <v>0.41689999999999999</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21" s="4">
         <v>5.67E-2</v>
       </c>
     </row>
@@ -10587,28 +12730,28 @@
       <c r="AB22">
         <v>57</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AE22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="4">
         <v>0.1032</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22" s="4">
         <v>0.19320000000000001</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AH22" s="4">
         <v>0.2848</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI22" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AJ22" s="4">
         <v>0.2074</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK22" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="4">
         <v>0.1007</v>
       </c>
     </row>
@@ -10637,28 +12780,28 @@
       <c r="AB23">
         <v>154</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AE23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF23" s="4">
         <v>0.1009</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23" s="4">
         <v>0.2422</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AH23" s="4">
         <v>0.34639999999999999</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AI23" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AJ23" s="4">
         <v>0.1042</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AK23" s="4">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23" s="4">
         <v>0.16880000000000001</v>
       </c>
     </row>
@@ -10687,28 +12830,28 @@
       <c r="AB24">
         <v>31</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AE24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24" s="4">
         <v>0.13719999999999999</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AH24" s="4">
         <v>0.14419999999999999</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24" s="4">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AJ24" s="4">
         <v>0.33139999999999997</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AK24" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24" s="4">
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
@@ -10737,28 +12880,28 @@
       <c r="AB25">
         <v>3</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AE25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="4">
         <v>0.22370000000000001</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="4">
         <v>0.43859999999999999</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AH25" s="4">
         <v>0.49120000000000003</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25" s="4">
         <v>1.32E-2</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25" s="4">
         <v>0.36399999999999999</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK25" s="4">
         <v>8.77E-2</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="4">
         <v>0.29820000000000002</v>
       </c>
     </row>
@@ -10787,94 +12930,2888 @@
       <c r="AB26">
         <v>4</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AE26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="4">
         <v>1.18E-2</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AH26" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="4">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AJ26" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AK26" s="4">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="4">
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77F92C-F034-424F-B202-201D0919AD64}">
+  <dimension ref="A1:AH123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I96" t="s">
+        <v>73</v>
+      </c>
+      <c r="J96" t="s">
+        <v>56</v>
+      </c>
+      <c r="K96" t="s">
+        <v>69</v>
+      </c>
+      <c r="L96" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" t="s">
+        <v>71</v>
+      </c>
+      <c r="N96" t="s">
+        <v>62</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>52</v>
+      </c>
+      <c r="R96" t="s">
+        <v>58</v>
+      </c>
+      <c r="S96" t="s">
+        <v>59</v>
+      </c>
+      <c r="T96" t="s">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s">
+        <v>55</v>
+      </c>
+      <c r="V96" t="s">
+        <v>57</v>
+      </c>
+      <c r="W96" t="s">
+        <v>53</v>
+      </c>
+      <c r="X96" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.4758</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0.5655</v>
+      </c>
+      <c r="K97" s="3">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L97" s="3">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.1111</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0.1077</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="R97" s="3">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="S97" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T97" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="U97" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="V97" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="W97" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="X97" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+    </row>
+    <row r="98" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0.1086</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.1227</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="O98" s="3">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R98" s="3">
+        <v>4.48E-2</v>
+      </c>
+      <c r="S98" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T98" s="3">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0.1177</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="W98" s="3">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="X98" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="C99" s="3">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.1991</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="G99" s="3">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="H99" s="3">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="J99" s="3">
+        <v>7.85E-2</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="M99" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N99" s="3">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="O99" s="3">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="P99" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="R99" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S99" s="3">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="T99" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0.1138</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0.1714</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3">
+        <v>0.2772</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.59330000000000005</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.621</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0.1429</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0.254</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0.1389</v>
+      </c>
+      <c r="L100" s="3">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="M100" s="3">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="O100" s="3">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="P100" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="R100" s="3">
+        <v>5.16E-2</v>
+      </c>
+      <c r="S100" s="3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="T100" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="U100" s="3">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="V100" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="W100" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="X100" s="3">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.1072</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="G101" s="3">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.4556</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0.4037</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0.2555</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0.1913</v>
+      </c>
+      <c r="M101" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N101" s="3">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="O101" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="R101" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="S101" s="3">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="T101" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0.1202</v>
+      </c>
+      <c r="X101" s="3">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>1.43E-2</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>1.78E-2</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.1789</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.1086</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0.1028</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0.2636</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0.1144</v>
+      </c>
+      <c r="O102" s="3">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="P102" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="R102" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="S102" s="3">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="T102" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="V102" s="3">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="W102" s="3">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="AF102" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AG102" s="3">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="H103" s="3">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="L103" s="3">
+        <v>5.91E-2</v>
+      </c>
+      <c r="M103" s="3">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="N103" s="3">
+        <v>0.1182</v>
+      </c>
+      <c r="O103" s="3">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="P103" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="R103" s="3">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="S103" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="T103" s="3">
+        <v>6.6E-3</v>
+      </c>
+      <c r="U103" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="V103" s="3">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="W103" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="X103" s="3">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="Y103" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Z103" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AG103" s="3"/>
+    </row>
+    <row r="104" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0.1457</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.1527</v>
+      </c>
+      <c r="N104" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O104" s="3">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="P104" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="R104" s="3">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="S104" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T104" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="U104" s="3">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="V104" s="3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="W104" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="X104" s="3">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="Z104" s="3">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AC104" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="AD104" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="AE104" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AF104" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AG104" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.1971</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.4521</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0.1236</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0.1915</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.1013</v>
+      </c>
+      <c r="N105" s="3">
+        <v>0.1353</v>
+      </c>
+      <c r="O105" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P105" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>0.1236</v>
+      </c>
+      <c r="R105" s="3">
+        <v>5.96E-2</v>
+      </c>
+      <c r="S105" s="3">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="T105" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="U105" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="V105" s="3">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="W105" s="3">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="X105" s="3">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="Y105" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="Z105" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="AB105" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC105" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AD105" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="AE105" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AF105" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AG105" s="3">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0.3004</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0.1434</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.1051</v>
+      </c>
+      <c r="N106" s="3">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="O106" s="3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="P106" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R106" s="3">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="S106" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="T106" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U106" s="3">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="V106" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="W106" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="X106" s="3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="Y106" s="3">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="Z106" s="3">
+        <v>1.24E-2</v>
+      </c>
+      <c r="AA106" s="3">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AC106" s="3"/>
+      <c r="AD106" s="3">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3"/>
+      <c r="AG106" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.2591</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0.1462</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0.2641</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0.1744</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.1321</v>
+      </c>
+      <c r="N107" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="O107" s="3">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="P107" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>0.1462</v>
+      </c>
+      <c r="R107" s="3">
+        <v>0.1196</v>
+      </c>
+      <c r="S107" s="3">
+        <v>2.24E-2</v>
+      </c>
+      <c r="T107" s="3">
+        <v>3.49E-2</v>
+      </c>
+      <c r="U107" s="3">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="V107" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="W107" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="X107" s="3">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="Y107" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Z107" s="3">
+        <v>1.41E-2</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>0.1154</v>
+      </c>
+      <c r="AB107" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC107" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AD107" s="3">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="AE107" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="AF107" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AG107" s="3">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.41420000000000001</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0.1283</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.2349</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="L108" s="3">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="M108" s="3">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="N108" s="3">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="O108" s="3">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="P108" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="R108" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="S108" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="T108" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="U108" s="3">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="V108" s="3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="W108" s="3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="X108" s="3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="Y108" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Z108" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AA108" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="AE108" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AF108" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AG108" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0.36170000000000002</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0.2412</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.1244</v>
+      </c>
+      <c r="N109" s="3">
+        <v>0.1162</v>
+      </c>
+      <c r="O109" s="3">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="P109" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="R109" s="3">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="S109" s="3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="T109" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="U109" s="3">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="V109" s="3">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="W109" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="X109" s="3">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="Y109" s="3">
+        <v>1.14E-2</v>
+      </c>
+      <c r="Z109" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AA109" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AB109" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="AE109" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AF109" s="3">
+        <v>0.1736</v>
+      </c>
+      <c r="AG109" s="3">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.1603</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N110" s="3">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="P110" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>0.1186</v>
+      </c>
+      <c r="R110" s="3">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="S110" s="3">
+        <v>5.45E-2</v>
+      </c>
+      <c r="T110" s="3">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="U110" s="3">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="V110" s="3">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="W110" s="3">
+        <v>0.1026</v>
+      </c>
+      <c r="X110" s="3">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="Z110" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC110" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="AD110" s="3">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="AE110" s="3">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="AF110" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="AG110" s="3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.2228</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.6431</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0.1293</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="L111" s="3">
+        <v>0.1641</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.1138</v>
+      </c>
+      <c r="N111" s="3">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="O111" s="3">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="P111" s="3">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>2.63E-2</v>
+      </c>
+      <c r="R111" s="3">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="S111" s="3">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="T111" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="U111" s="3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="V111" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="W111" s="3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="X111" s="3">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="Y111" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z111" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AE111" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AF111" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG111" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.3145</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0.1055</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.1714</v>
+      </c>
+      <c r="L112" s="3">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="M112" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="N112" s="3">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="O112" s="3">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="P112" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>0.1076</v>
+      </c>
+      <c r="R112" s="3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="S112" s="3">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="T112" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="U112" s="3">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="V112" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="W112" s="3">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="X112" s="3">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AA112" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="AE112" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="AF112" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="AG112" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.2044</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0.1852</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="M113" s="3">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="N113" s="3">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="O113" s="3">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="P113" s="3">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="R113" s="3">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="S113" s="3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="T113" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="U113" s="3">
+        <v>0.1265</v>
+      </c>
+      <c r="V113" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="W113" s="3">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="X113" s="3">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="Y113" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="Z113" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="AA113" s="3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AB113" s="3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AE113" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AF113" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AG113" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.2797</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.3427</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0.1119</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0.2273</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="L114" s="3">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.1084</v>
+      </c>
+      <c r="N114" s="3">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="O114" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R114" s="3">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="S114" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="V114" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="W114" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="X114" s="3">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="Y114" s="3">
+        <v>3.15E-2</v>
+      </c>
+      <c r="Z114" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AA114" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+    </row>
+    <row r="115" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L115" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="N115" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="O115" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P115" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="R115" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="S115" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="T115" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U115" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V115" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Y115" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z115" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AA115" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.1021</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.1489</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0.1447</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.4894</v>
+      </c>
+      <c r="K116" s="3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="L116" s="3">
+        <v>5.11E-2</v>
+      </c>
+      <c r="M116" s="3">
+        <v>5.96E-2</v>
+      </c>
+      <c r="N116" s="3">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="O116" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3">
+        <v>0.1489</v>
+      </c>
+      <c r="R116" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S116" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="T116" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="U116" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V116" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="W116" s="3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="X116" s="3">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="Z116" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+      <c r="AG116" s="3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.4607</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0.1178</v>
+      </c>
+      <c r="M117" s="3">
+        <v>7.85E-2</v>
+      </c>
+      <c r="N117" s="3">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="O117" s="3">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="P117" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="R117" s="3">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="S117" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="T117" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="U117" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V117" s="3">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="W117" s="3">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="X117" s="3">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="Y117" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="Z117" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="AA117" s="3">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="AB117" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+    </row>
+    <row r="118" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="3">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.1303</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="G118" s="3">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0.2409</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.1152</v>
+      </c>
+      <c r="N118" s="3">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="O118" s="3">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="P118" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>5.91E-2</v>
+      </c>
+      <c r="R118" s="3">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="S118" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="T118" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="U118" s="3">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="V118" s="3">
+        <v>1.21E-2</v>
+      </c>
+      <c r="W118" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="X118" s="3">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="Y118" s="3">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="Z118" s="3">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="AA118" s="3">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="AE118" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="AF118" s="3">
+        <v>0.1242</v>
+      </c>
+      <c r="AG118" s="3">
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.2757</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0.1449</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="K119" s="3">
+        <v>9.35E-2</v>
+      </c>
+      <c r="L119" s="3">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="M119" s="3">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="N119" s="3">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="O119" s="3">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="R119" s="3">
+        <v>6.54E-2</v>
+      </c>
+      <c r="S119" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X119" s="3">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="Y119" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="Z119" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="AA119" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="AB119" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="AC119" s="3"/>
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="AG119" s="3"/>
+    </row>
+    <row r="120" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I120" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="L120" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="X120" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AA120" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+      <c r="AG120" s="3"/>
+    </row>
+    <row r="121" spans="1:34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0.1923</v>
+      </c>
+      <c r="L121" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="M121" s="3">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="N121" s="3">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="O121" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+    </row>
+    <row r="122" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="5">
+        <f>_xlfn.STDEV.S(B97:B120)</f>
+        <v>0.12890914836662548</v>
+      </c>
+      <c r="C122" s="3">
+        <f>_xlfn.STDEV.S(C97:C120)</f>
+        <v>8.4119385485705758E-2</v>
+      </c>
+      <c r="D122" s="5">
+        <f>_xlfn.STDEV.S(D97:D120)</f>
+        <v>0.11275724855391417</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" ref="E122:AG122" si="0">_xlfn.STDEV.S(E97:E120)</f>
+        <v>0.12194924275275788</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9874528854288007E-2</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13815071689900901</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2767615885426208E-2</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0508965045586073E-2</v>
+      </c>
+      <c r="J122" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11357640089639977</v>
+      </c>
+      <c r="K122" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5905834442745327E-2</v>
+      </c>
+      <c r="L122" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2006303111407261E-2</v>
+      </c>
+      <c r="M122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0059773952562897E-2</v>
+      </c>
+      <c r="N122" s="3">
+        <f t="shared" si="0"/>
+        <v>5.31885882865211E-2</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.070751363896679E-2</v>
+      </c>
+      <c r="P122" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3964273847805851E-2</v>
+      </c>
+      <c r="Q122" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3130635801103164E-2</v>
+      </c>
+      <c r="R122" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4141838775177032E-2</v>
+      </c>
+      <c r="S122" s="3">
+        <f t="shared" si="0"/>
+        <v>1.13460457262955E-2</v>
+      </c>
+      <c r="T122" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0464477326378308E-2</v>
+      </c>
+      <c r="U122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.685574822051556E-2</v>
+      </c>
+      <c r="V122" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9721473417503556E-2</v>
+      </c>
+      <c r="W122" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7660713848637187E-2</v>
+      </c>
+      <c r="X122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3027028916615917E-2</v>
+      </c>
+      <c r="Y122" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1923903981750607E-2</v>
+      </c>
+      <c r="Z122" s="3">
+        <f t="shared" si="0"/>
+        <v>1.049799066350386E-2</v>
+      </c>
+      <c r="AA122" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5443201520704666E-2</v>
+      </c>
+      <c r="AB122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0330510454610065E-2</v>
+      </c>
+      <c r="AC122" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9436669543986653E-2</v>
+      </c>
+      <c r="AD122" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3839754903518837E-2</v>
+      </c>
+      <c r="AE122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6309460738019323E-2</v>
+      </c>
+      <c r="AF122" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9231729217697667E-2</v>
+      </c>
+      <c r="AG122" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6774632541127771E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="5">
+        <f>_xlfn.STDEV.S(B97:B101)</f>
+        <v>0.15499603220727942</v>
+      </c>
+      <c r="C123" s="5">
+        <f>_xlfn.STDEV.S(C97:C101)</f>
+        <v>0.15282125833796811</v>
+      </c>
+      <c r="D123" s="5">
+        <f>_xlfn.STDEV.S(D97:D101)</f>
+        <v>0.13916708662611263</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" ref="E123:AG123" si="1">_xlfn.STDEV.S(E97:E101)</f>
+        <v>0.23604408486551817</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8719460147382128E-2</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21370727175274121</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="1"/>
+        <v>8.096372644585971E-2</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6789081255084657E-2</v>
+      </c>
+      <c r="J123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17611889450027779</v>
+      </c>
+      <c r="K123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13331967971758704</v>
+      </c>
+      <c r="L123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13024942226359396</v>
+      </c>
+      <c r="M123" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3637137214691748E-2</v>
+      </c>
+      <c r="N123" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8261505301528189E-2</v>
+      </c>
+      <c r="O123" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4404845832452058E-2</v>
+      </c>
+      <c r="P123" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6754571968952947E-2</v>
+      </c>
+      <c r="Q123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13630035583225744</v>
+      </c>
+      <c r="R123" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5464410755020704E-2</v>
+      </c>
+      <c r="S123" s="3">
+        <f t="shared" si="1"/>
+        <v>9.0168176204246196E-3</v>
+      </c>
+      <c r="T123" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1086201659547963E-3</v>
+      </c>
+      <c r="U123" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8819529069859128E-2</v>
+      </c>
+      <c r="V123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15268713763771985</v>
+      </c>
+      <c r="W123" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3073420843205495E-2</v>
+      </c>
+      <c r="X123" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4177698618756968E-2</v>
+      </c>
+      <c r="Y123" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9155068954891984E-3</v>
+      </c>
+      <c r="Z123" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2188314075375638E-2</v>
+      </c>
+      <c r="AA123" s="3">
+        <f t="shared" si="1"/>
+        <v>2.335654083977334E-2</v>
+      </c>
+      <c r="AB123" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6564387187862377E-3</v>
+      </c>
+      <c r="AC123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13920935073957258</v>
+      </c>
+      <c r="AD123" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1043487777362018E-3</v>
+      </c>
+      <c r="AE123" s="5">
+        <f t="shared" si="1"/>
+        <v>9.8120792903441223E-2</v>
+      </c>
+      <c r="AF123" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5073226092121982E-3</v>
+      </c>
+      <c r="AG123" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3694707794152644E-3</v>
+      </c>
+      <c r="AH123"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1415484-0793-3A44-A308-0858D3EC5F7F}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -10891,28 +15828,32 @@
       <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>69</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>55</v>
       </c>
+      <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -10929,19 +15870,23 @@
       <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>50</v>
       </c>
+      <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -10958,22 +15903,26 @@
       <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>72</v>
       </c>
+      <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -10990,19 +15939,23 @@
       <c r="G5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
+      <c r="H5" t="s">
+        <v>75</v>
       </c>
       <c r="K5" t="s">
         <v>74</v>
       </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -11019,31 +15972,35 @@
       <c r="G6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>68</v>
       </c>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -11060,19 +16017,23 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
+      <c r="H7" t="s">
+        <v>73</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -11089,19 +16050,23 @@
       <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
-        <v>76</v>
+      <c r="H8" t="s">
+        <v>72</v>
       </c>
       <c r="K8" t="s">
         <v>76</v>
       </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -11118,22 +16083,26 @@
       <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
         <v>84</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>78</v>
       </c>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -11150,22 +16119,26 @@
       <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
         <v>85</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>56</v>
       </c>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -11182,22 +16155,26 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>75</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>52</v>
       </c>
+      <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -11214,22 +16191,26 @@
       <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>65</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>67</v>
       </c>
+      <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
         <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -11246,19 +16227,23 @@
       <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" t="s">
-        <v>48</v>
+      <c r="H13" t="s">
+        <v>67</v>
       </c>
       <c r="K13" t="s">
         <v>48</v>
       </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -11275,13 +16260,17 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -11298,13 +16287,17 @@
       <c r="G15" t="s">
         <v>65</v>
       </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
         <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -11321,16 +16314,20 @@
       <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
         <v>47</v>
       </c>
+      <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
         <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -11347,16 +16344,20 @@
       <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="J17" t="s">
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" t="s">
         <v>70</v>
       </c>
+      <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
         <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -11373,16 +16374,20 @@
       <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="J18" t="s">
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
         <v>64</v>
       </c>
+      <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
         <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -11399,16 +16404,20 @@
       <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="J19" t="s">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
         <v>69</v>
       </c>
+      <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
         <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -11425,16 +16434,20 @@
       <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="J20" t="s">
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
         <v>53</v>
       </c>
+      <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
         <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
@@ -11451,16 +16464,20 @@
       <c r="G21" t="s">
         <v>59</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
         <v>55</v>
       </c>
+      <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
         <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
@@ -11477,16 +16494,20 @@
       <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="J22" t="s">
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
         <v>75</v>
       </c>
+      <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
         <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -11503,16 +16524,20 @@
       <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
         <v>52</v>
       </c>
+      <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -11529,16 +16554,20 @@
       <c r="G24" t="s">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
         <v>74</v>
       </c>
+      <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
         <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -11555,19 +16584,23 @@
       <c r="G25" t="s">
         <v>55</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>57</v>
       </c>
+      <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
         <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -11584,16 +16617,17 @@
       <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s">
         <v>72</v>
       </c>
+      <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
@@ -11610,16 +16644,16 @@
       <c r="G27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" t="s">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -11636,16 +16670,16 @@
       <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -11662,16 +16696,16 @@
       <c r="G29" t="s">
         <v>51</v>
       </c>
-      <c r="J29" t="s">
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -11688,16 +16722,16 @@
       <c r="G30" t="s">
         <v>50</v>
       </c>
-      <c r="J30" t="s">
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -11714,16 +16748,16 @@
       <c r="G31" t="s">
         <v>49</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>48</v>
@@ -11740,16 +16774,16 @@
       <c r="G32" t="s">
         <v>48</v>
       </c>
-      <c r="J32" t="s">
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -11766,42 +16800,45 @@
       <c r="G33" t="s">
         <v>47</v>
       </c>
-      <c r="J33" t="s">
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J34" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J37" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J38" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J39" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J40" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
         <v>48</v>
       </c>
     </row>

--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicatong/Documents/Data-Minimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A321E-5C91-6C46-8CF7-9125947DC4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434186B-046B-C847-B067-52C5AFD1FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{7775489A-32FA-7B4E-AD1E-32CB2ACF6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="ios_purposes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="105">
   <si>
     <t xml:space="preserve">Category         </t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Average % of apps that collect</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Correlations</t>
   </si>
 </sst>
 </file>
@@ -872,11 +878,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -892,6 +899,8 @@
     <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -21880,10 +21889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD0D29-16B8-7348-A310-D8DA5203AA8C}">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView topLeftCell="AA24" zoomScale="125" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" topLeftCell="AC3" zoomScale="90" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21961,28 +21970,28 @@
       <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -22059,28 +22068,28 @@
       <c r="AB2">
         <v>673</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="5">
         <v>0.1981</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="5">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="5">
         <v>0.29620000000000002</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="5">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="5">
         <v>0.57589999999999997</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="5">
         <v>0.30940000000000001</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="5">
         <v>0.17660000000000001</v>
       </c>
     </row>
@@ -22157,28 +22166,28 @@
       <c r="AB3">
         <v>232</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="5">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="5">
         <v>0.3291</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="5">
         <v>0.45029999999999998</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="5">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="5">
         <v>0.20580000000000001</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="5">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="5">
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -22255,28 +22264,28 @@
       <c r="AB4">
         <v>399</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="5">
         <v>0.23880000000000001</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="5">
         <v>0.48080000000000001</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="5">
         <v>0.66110000000000002</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="5">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="5">
         <v>0.45979999999999999</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="5">
         <v>0.12939999999999999</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="5">
         <v>0.45200000000000001</v>
       </c>
     </row>
@@ -22353,28 +22362,28 @@
       <c r="AB5">
         <v>75</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="5">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="5">
         <v>0.1845</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="5">
         <v>0.187</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="5">
         <v>2.75E-2</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="5">
         <v>0.38579999999999998</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="5">
         <v>0.1153</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="5">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
@@ -22451,28 +22460,28 @@
       <c r="AB6">
         <v>235</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="5">
         <v>0.28360000000000002</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="5">
         <v>0.37809999999999999</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="5">
         <v>0.53510000000000002</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="5">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="5">
         <v>0.23449999999999999</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="5">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="5">
         <v>0.34760000000000002</v>
       </c>
     </row>
@@ -22549,28 +22558,28 @@
       <c r="AB7">
         <v>238</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="5">
         <v>0.1424</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="5">
         <v>0.27929999999999999</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="5">
         <v>0.42480000000000001</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="5">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="5">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="5">
         <v>0.19639999999999999</v>
       </c>
     </row>
@@ -22599,28 +22608,28 @@
       <c r="AB8">
         <v>62</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF8" s="5">
         <v>0.09</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="5">
         <v>0.16139999999999999</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="5">
         <v>0.1741</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="5">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ8" s="5">
         <v>0.21790000000000001</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="5">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="5">
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
@@ -22649,28 +22658,28 @@
       <c r="AB9">
         <v>125</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AF9" s="5">
         <v>0.1489</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="5">
         <v>0.2656</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="5">
         <v>0.2974</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="5">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="5">
         <v>0.38969999999999999</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="5">
         <v>0.16589999999999999</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="5">
         <v>0.1721</v>
       </c>
     </row>
@@ -22699,28 +22708,28 @@
       <c r="AB10">
         <v>279</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="5">
         <v>0.14710000000000001</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="5">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="5">
         <v>0.42470000000000002</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI10" s="5">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AJ10" s="5">
         <v>0.2135</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK10" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL10" s="5">
         <v>0.23860000000000001</v>
       </c>
     </row>
@@ -22749,28 +22758,28 @@
       <c r="AB11">
         <v>131</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="5">
         <v>7.46E-2</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="5">
         <v>0.19650000000000001</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="5">
         <v>0.27160000000000001</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="5">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AJ11" s="5">
         <v>0.19289999999999999</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="5">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL11" s="5">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
@@ -22799,28 +22808,28 @@
       <c r="AB12">
         <v>252</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF12" s="5">
         <v>0.12770000000000001</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="5">
         <v>0.29399999999999998</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH12" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI12" s="5">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ12" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK12" s="5">
         <v>0.10920000000000001</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AL12" s="5">
         <v>0.2452</v>
       </c>
     </row>
@@ -22849,28 +22858,28 @@
       <c r="AB13">
         <v>100</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="5">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="5">
         <v>0.16220000000000001</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="5">
         <v>0.18529999999999999</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="5">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="5">
         <v>0.27779999999999999</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="5">
         <v>0.09</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AL13" s="5">
         <v>5.4199999999999998E-2</v>
       </c>
     </row>
@@ -22899,28 +22908,28 @@
       <c r="AB14">
         <v>258</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF14" s="5">
         <v>0.17949999999999999</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="5">
         <v>0.34539999999999998</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH14" s="5">
         <v>0.4551</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AI14" s="5">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AJ14" s="5">
         <v>0.2427</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AK14" s="5">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL14" s="5">
         <v>0.24199999999999999</v>
       </c>
     </row>
@@ -22949,28 +22958,28 @@
       <c r="AB15">
         <v>64</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AF15" s="5">
         <v>0.13489999999999999</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AG15" s="5">
         <v>0.32879999999999998</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH15" s="5">
         <v>0.4405</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AI15" s="5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AJ15" s="5">
         <v>0.1391</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AK15" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AL15" s="5">
         <v>0.19700000000000001</v>
       </c>
     </row>
@@ -22999,32 +23008,32 @@
       <c r="AB16">
         <v>166</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF16" s="5">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="5">
         <v>0.185</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH16" s="5">
         <v>0.24299999999999999</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AI16" s="5">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AJ16" s="5">
         <v>0.1905</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AK16" s="5">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AL16" s="5">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="17" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U17" t="s">
         <v>37</v>
       </c>
@@ -23049,32 +23058,32 @@
       <c r="AB17">
         <v>183</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="5">
         <v>0.28420000000000001</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="5">
         <v>0.2848</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH17" s="5">
         <v>0.4143</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AI17" s="5">
         <v>5.45E-2</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AJ17" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AK17" s="5">
         <v>0.22889999999999999</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AL17" s="5">
         <v>0.2024</v>
       </c>
     </row>
-    <row r="18" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U18" t="s">
         <v>38</v>
       </c>
@@ -23099,32 +23108,35 @@
       <c r="AB18">
         <v>315</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="5">
         <v>0.1729</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="5">
         <v>0.27739999999999998</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH18" s="5">
         <v>0.40660000000000002</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AI18" s="5">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AJ18" s="5">
         <v>0.2044</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AK18" s="5">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AL18" s="5">
         <v>0.20979999999999999</v>
       </c>
+      <c r="AN18" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="19" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U19" t="s">
         <v>39</v>
       </c>
@@ -23149,32 +23161,41 @@
       <c r="AB19">
         <v>32</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AE19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF19" s="5">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AG19" s="5">
         <v>0.15040000000000001</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AH19" s="5">
         <v>0.1661</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AI19" s="5">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AJ19" s="5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AK19" s="5">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AL19" s="5">
         <v>8.1500000000000003E-2</v>
       </c>
+      <c r="AO19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="20" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U20" t="s">
         <v>40</v>
       </c>
@@ -23199,32 +23220,46 @@
       <c r="AB20">
         <v>31</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AF20" s="5">
         <v>0.1239</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AG20" s="5">
         <v>0.22320000000000001</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AH20" s="5">
         <v>0.2712</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AI20" s="5">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AJ20" s="5">
         <v>0.34489999999999998</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AK20" s="5">
         <v>0.125</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AL20" s="5">
         <v>0.17749999999999999</v>
       </c>
+      <c r="AN20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP20" s="4">
+        <f>CORREL(AF3:AL3,AF4:AL4)</f>
+        <v>0.92378418068974077</v>
+      </c>
+      <c r="AQ20" s="4">
+        <f>CORREL(AF3:AL3,AF6:AL6)</f>
+        <v>0.9459353025906776</v>
+      </c>
     </row>
-    <row r="21" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U21" t="s">
         <v>41</v>
       </c>
@@ -23249,32 +23284,45 @@
       <c r="AB21">
         <v>78</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="5">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AH21" s="5">
         <v>0.20649999999999999</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AI21" s="5">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AJ21" s="5">
         <v>0.41689999999999999</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AK21" s="5">
         <v>0.15740000000000001</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AL21" s="5">
         <v>5.67E-2</v>
       </c>
+      <c r="AN21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f>CORREL(AF4:AL4,AF6:AL6)</f>
+        <v>0.92328656508993656</v>
+      </c>
     </row>
-    <row r="22" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U22" t="s">
         <v>42</v>
       </c>
@@ -23299,32 +23347,44 @@
       <c r="AB22">
         <v>57</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF22" s="5">
         <v>0.1032</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="5">
         <v>0.19320000000000001</v>
       </c>
-      <c r="AH22" s="4">
+      <c r="AH22" s="5">
         <v>0.2848</v>
       </c>
-      <c r="AI22" s="4">
+      <c r="AI22" s="5">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AJ22" s="5">
         <v>0.2074</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AK22" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AL22" s="5">
         <v>0.1007</v>
       </c>
+      <c r="AN22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="23" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U23" t="s">
         <v>43</v>
       </c>
@@ -23349,32 +23409,32 @@
       <c r="AB23">
         <v>154</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="5">
         <v>0.1009</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG23" s="5">
         <v>0.2422</v>
       </c>
-      <c r="AH23" s="4">
+      <c r="AH23" s="5">
         <v>0.34639999999999999</v>
       </c>
-      <c r="AI23" s="4">
+      <c r="AI23" s="5">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AJ23" s="5">
         <v>0.1042</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AK23" s="5">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AL23" s="5">
         <v>0.16880000000000001</v>
       </c>
     </row>
-    <row r="24" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U24" t="s">
         <v>44</v>
       </c>
@@ -23399,32 +23459,35 @@
       <c r="AB24">
         <v>31</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AF24" s="5">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AG24" s="5">
         <v>0.13719999999999999</v>
       </c>
-      <c r="AH24" s="4">
+      <c r="AH24" s="5">
         <v>0.14419999999999999</v>
       </c>
-      <c r="AI24" s="4">
+      <c r="AI24" s="5">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AJ24" s="5">
         <v>0.33139999999999997</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AK24" s="5">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="AL24" s="4">
+      <c r="AL24" s="5">
         <v>5.1299999999999998E-2</v>
       </c>
+      <c r="AO24" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="25" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U25" t="s">
         <v>45</v>
       </c>
@@ -23449,32 +23512,39 @@
       <c r="AB25">
         <v>3</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF25" s="5">
         <v>0.22370000000000001</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG25" s="5">
         <v>0.43859999999999999</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AH25" s="5">
         <v>0.49120000000000003</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AI25" s="5">
         <v>1.32E-2</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AJ25" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AK25" s="5">
         <v>8.77E-2</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AL25" s="5">
         <v>0.29820000000000002</v>
       </c>
+      <c r="AN25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO25" s="4">
+        <f>CORREL(AF5:AL5,AF2:AL2)</f>
+        <v>0.96773119364289417</v>
+      </c>
     </row>
-    <row r="26" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U26" t="s">
         <v>46</v>
       </c>
@@ -23499,42 +23569,42 @@
       <c r="AB26">
         <v>4</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AE26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF26" s="5">
         <v>1.18E-2</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AG26" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AH26" s="5">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AI26" s="5">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AJ26" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AK26" s="5">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AL26" s="5">
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="21:43" x14ac:dyDescent="0.2">
       <c r="AM29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="21:43" x14ac:dyDescent="0.2">
       <c r="AM31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="21:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="21:43" x14ac:dyDescent="0.2">
       <c r="AM32" t="s">
         <v>94</v>
       </c>
@@ -23550,7 +23620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77F92C-F034-424F-B202-201D0919AD64}">
   <dimension ref="A1:AW169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="89" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
@@ -23560,7 +23630,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -26108,7 +26178,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="3">
@@ -26241,7 +26311,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="3">
@@ -26386,7 +26456,7 @@
       <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -28825,7 +28895,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="3">
@@ -28958,7 +29028,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B60" s="3">
@@ -29100,7 +29170,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -31311,7 +31381,7 @@
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="3">
@@ -31444,7 +31514,7 @@
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="3">
@@ -31577,19 +31647,19 @@
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="13">
         <v>0.89471064</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -33932,7 +34002,7 @@
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B120" s="3">
@@ -34065,7 +34135,7 @@
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B121" s="3">
@@ -34198,19 +34268,19 @@
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="13">
         <v>0.89471064</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -36687,309 +36757,309 @@
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="8">
         <f>_xlfn.STDEV.S(B126:B149)</f>
         <v>0.13815071689900901</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="8">
         <f>_xlfn.STDEV.S(C126:C149)</f>
         <v>1.3839754903518837E-2</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="8">
         <f>_xlfn.STDEV.S(D126:D149)</f>
         <v>1.049799066350386E-2</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="8">
         <f>_xlfn.STDEV.S(E126:E149)</f>
         <v>8.4119385485705758E-2</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="8">
         <f>_xlfn.STDEV.S(F126:F149)</f>
         <v>1.0464477326378308E-2</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151" s="8">
         <f>_xlfn.STDEV.S(G126:G149)</f>
         <v>9.0508965045586073E-2</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="8">
         <f>_xlfn.STDEV.S(H126:H149)</f>
         <v>9.9436669543986653E-2</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="8">
         <f>_xlfn.STDEV.S(I126:I149)</f>
         <v>4.0059773952562897E-2</v>
       </c>
-      <c r="J151" s="7">
+      <c r="J151" s="8">
         <f>_xlfn.STDEV.S(J126:J149)</f>
         <v>0.12194924275275788</v>
       </c>
-      <c r="K151" s="7">
+      <c r="K151" s="8">
         <f>_xlfn.STDEV.S(K126:K149)</f>
         <v>8.5905834442745327E-2</v>
       </c>
-      <c r="L151" s="7">
+      <c r="L151" s="8">
         <f>_xlfn.STDEV.S(L126:L149)</f>
         <v>1.1923903981750607E-2</v>
       </c>
-      <c r="M151" s="7">
+      <c r="M151" s="8">
         <f>_xlfn.STDEV.S(M126:M149)</f>
         <v>4.0330510454610065E-2</v>
       </c>
-      <c r="N151" s="7">
+      <c r="N151" s="8">
         <f>_xlfn.STDEV.S(N126:N149)</f>
         <v>2.3964273847805851E-2</v>
       </c>
-      <c r="O151" s="7">
+      <c r="O151" s="8">
         <f>_xlfn.STDEV.S(O126:O149)</f>
         <v>4.9231729217697667E-2</v>
       </c>
-      <c r="P151" s="7">
+      <c r="P151" s="8">
         <f>_xlfn.STDEV.S(P126:P149)</f>
         <v>8.2006303111407261E-2</v>
       </c>
-      <c r="Q151" s="7">
+      <c r="Q151" s="8">
         <f>_xlfn.STDEV.S(Q126:Q149)</f>
         <v>4.070751363896679E-2</v>
       </c>
-      <c r="R151" s="7">
+      <c r="R151" s="8">
         <f>_xlfn.STDEV.S(R126:R149)</f>
         <v>5.31885882865211E-2</v>
       </c>
-      <c r="S151" s="7">
+      <c r="S151" s="8">
         <f>_xlfn.STDEV.S(S126:S149)</f>
         <v>4.6309460738019323E-2</v>
       </c>
-      <c r="T151" s="7">
+      <c r="T151" s="8">
         <f>_xlfn.STDEV.S(T126:T149)</f>
         <v>5.2767615885426208E-2</v>
       </c>
-      <c r="U151" s="7">
+      <c r="U151" s="8">
         <f>_xlfn.STDEV.S(U126:U149)</f>
         <v>1.13460457262955E-2</v>
       </c>
-      <c r="V151" s="7">
+      <c r="V151" s="8">
         <f>_xlfn.STDEV.S(V126:V149)</f>
         <v>2.4141838775177032E-2</v>
       </c>
-      <c r="W151" s="7">
+      <c r="W151" s="8">
         <f>_xlfn.STDEV.S(W126:W149)</f>
         <v>8.9721473417503556E-2</v>
       </c>
-      <c r="X151" s="7">
+      <c r="X151" s="8">
         <f>_xlfn.STDEV.S(X126:X149)</f>
         <v>0.11357640089639977</v>
       </c>
-      <c r="Y151" s="7">
+      <c r="Y151" s="8">
         <f>_xlfn.STDEV.S(Y126:Y149)</f>
         <v>4.685574822051556E-2</v>
       </c>
-      <c r="Z151" s="7">
+      <c r="Z151" s="8">
         <f>_xlfn.STDEV.S(Z126:Z149)</f>
         <v>2.5443201520704666E-2</v>
       </c>
-      <c r="AA151" s="7">
+      <c r="AA151" s="8">
         <f>_xlfn.STDEV.S(AA126:AA149)</f>
         <v>3.7660713848637187E-2</v>
       </c>
-      <c r="AB151" s="7">
+      <c r="AB151" s="8">
         <f>_xlfn.STDEV.S(AB126:AB149)</f>
         <v>8.3130635801103164E-2</v>
       </c>
-      <c r="AC151" s="7">
+      <c r="AC151" s="8">
         <f>_xlfn.STDEV.S(AC126:AC149)</f>
         <v>6.9874528854288007E-2</v>
       </c>
-      <c r="AD151" s="7">
+      <c r="AD151" s="8">
         <f>_xlfn.STDEV.S(AD126:AD149)</f>
         <v>0.12890914836662548</v>
       </c>
-      <c r="AE151" s="7">
+      <c r="AE151" s="8">
         <f>_xlfn.STDEV.S(AE126:AE149)</f>
         <v>4.3027028916615917E-2</v>
       </c>
-      <c r="AF151" s="7">
+      <c r="AF151" s="8">
         <f>_xlfn.STDEV.S(AF126:AF149)</f>
         <v>2.6774632541127771E-2</v>
       </c>
-      <c r="AG151" s="7">
+      <c r="AG151" s="8">
         <f>_xlfn.STDEV.S(AG126:AG149)</f>
         <v>0.11275724855391417</v>
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="8">
         <f>_xlfn.STDEV.S(B126:B130)</f>
         <v>0.21370727175274121</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="8">
         <f>_xlfn.STDEV.S(C126:C130)</f>
         <v>9.1043487777362018E-3</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="8">
         <f>_xlfn.STDEV.S(D126:D130)</f>
         <v>1.2188314075375638E-2</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="8">
         <f>_xlfn.STDEV.S(E126:E130)</f>
         <v>0.15282125833796811</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="8">
         <f>_xlfn.STDEV.S(F126:F130)</f>
         <v>5.1086201659547963E-3</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152" s="8">
         <f>_xlfn.STDEV.S(G126:G130)</f>
         <v>7.6789081255084657E-2</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="8">
         <f>_xlfn.STDEV.S(H126:H130)</f>
         <v>0.13920935073957258</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="8">
         <f>_xlfn.STDEV.S(I126:I130)</f>
         <v>3.3637137214691748E-2</v>
       </c>
-      <c r="J152" s="7">
+      <c r="J152" s="8">
         <f>_xlfn.STDEV.S(J126:J130)</f>
         <v>0.23604408486551817</v>
       </c>
-      <c r="K152" s="7">
+      <c r="K152" s="8">
         <f>_xlfn.STDEV.S(K126:K130)</f>
         <v>0.13331967971758704</v>
       </c>
-      <c r="L152" s="7">
+      <c r="L152" s="8">
         <f>_xlfn.STDEV.S(L126:L130)</f>
         <v>1.9155068954891984E-3</v>
       </c>
-      <c r="M152" s="7">
+      <c r="M152" s="8">
         <f>_xlfn.STDEV.S(M126:M130)</f>
         <v>2.6564387187862377E-3</v>
       </c>
-      <c r="N152" s="7">
+      <c r="N152" s="8">
         <f>_xlfn.STDEV.S(N126:N130)</f>
         <v>4.6754571968952947E-2</v>
       </c>
-      <c r="O152" s="7">
+      <c r="O152" s="8">
         <f>_xlfn.STDEV.S(O126:O130)</f>
         <v>2.5073226092121982E-3</v>
       </c>
-      <c r="P152" s="7">
+      <c r="P152" s="8">
         <f>_xlfn.STDEV.S(P126:P130)</f>
         <v>0.13024942226359396</v>
       </c>
-      <c r="Q152" s="7">
+      <c r="Q152" s="8">
         <f>_xlfn.STDEV.S(Q126:Q130)</f>
         <v>8.4404845832452058E-2</v>
       </c>
-      <c r="R152" s="7">
+      <c r="R152" s="8">
         <f>_xlfn.STDEV.S(R126:R130)</f>
         <v>5.8261505301528189E-2</v>
       </c>
-      <c r="S152" s="7">
+      <c r="S152" s="8">
         <f>_xlfn.STDEV.S(S126:S130)</f>
         <v>9.8120792903441223E-2</v>
       </c>
-      <c r="T152" s="7">
+      <c r="T152" s="8">
         <f>_xlfn.STDEV.S(T126:T130)</f>
         <v>8.096372644585971E-2</v>
       </c>
-      <c r="U152" s="7">
+      <c r="U152" s="8">
         <f>_xlfn.STDEV.S(U126:U130)</f>
         <v>9.0168176204246196E-3</v>
       </c>
-      <c r="V152" s="7">
+      <c r="V152" s="8">
         <f>_xlfn.STDEV.S(V126:V130)</f>
         <v>1.5464410755020704E-2</v>
       </c>
-      <c r="W152" s="7">
+      <c r="W152" s="8">
         <f>_xlfn.STDEV.S(W126:W130)</f>
         <v>0.15268713763771985</v>
       </c>
-      <c r="X152" s="7">
+      <c r="X152" s="8">
         <f>_xlfn.STDEV.S(X126:X130)</f>
         <v>0.17611889450027779</v>
       </c>
-      <c r="Y152" s="7">
+      <c r="Y152" s="8">
         <f>_xlfn.STDEV.S(Y126:Y130)</f>
         <v>5.8819529069859128E-2</v>
       </c>
-      <c r="Z152" s="7">
+      <c r="Z152" s="8">
         <f>_xlfn.STDEV.S(Z126:Z130)</f>
         <v>2.335654083977334E-2</v>
       </c>
-      <c r="AA152" s="7">
+      <c r="AA152" s="8">
         <f>_xlfn.STDEV.S(AA126:AA130)</f>
         <v>5.3073420843205495E-2</v>
       </c>
-      <c r="AB152" s="7">
+      <c r="AB152" s="8">
         <f>_xlfn.STDEV.S(AB126:AB130)</f>
         <v>0.13630035583225744</v>
       </c>
-      <c r="AC152" s="7">
+      <c r="AC152" s="8">
         <f>_xlfn.STDEV.S(AC126:AC130)</f>
         <v>5.8719460147382128E-2</v>
       </c>
-      <c r="AD152" s="7">
+      <c r="AD152" s="8">
         <f>_xlfn.STDEV.S(AD126:AD130)</f>
         <v>0.15499603220727942</v>
       </c>
-      <c r="AE152" s="7">
+      <c r="AE152" s="8">
         <f>_xlfn.STDEV.S(AE126:AE130)</f>
         <v>6.4177698618756968E-2</v>
       </c>
-      <c r="AF152" s="7">
+      <c r="AF152" s="8">
         <f>_xlfn.STDEV.S(AF126:AF130)</f>
         <v>3.3694707794152644E-3</v>
       </c>
-      <c r="AG152" s="7">
+      <c r="AG152" s="8">
         <f>_xlfn.STDEV.S(AG126:AG130)</f>
         <v>0.13916708662611263</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="13">
         <v>0.89471064</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="18" t="s">
         <v>74</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H156" s="17" t="s">
+      <c r="H156" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I156" s="17" t="s">
+      <c r="I156" s="18" t="s">
         <v>71</v>
       </c>
       <c r="J156" s="2" t="s">
@@ -36998,37 +37068,37 @@
       <c r="K156" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L156" s="17" t="s">
+      <c r="L156" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M156" s="17" t="s">
+      <c r="M156" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N156" s="17" t="s">
+      <c r="N156" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O156" s="17" t="s">
+      <c r="O156" s="18" t="s">
         <v>65</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q156" s="18" t="s">
+      <c r="Q156" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R156" s="18" t="s">
+      <c r="R156" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="S156" s="18" t="s">
+      <c r="S156" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="T156" s="18" t="s">
+      <c r="T156" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="U156" s="18" t="s">
+      <c r="U156" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="V156" s="18" t="s">
+      <c r="V156" s="19" t="s">
         <v>58</v>
       </c>
       <c r="W156" s="2" t="s">
@@ -37040,7 +37110,7 @@
       <c r="Y156" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z156" s="17" t="s">
+      <c r="Z156" s="18" t="s">
         <v>54</v>
       </c>
       <c r="AA156" s="2" t="s">
@@ -37055,10 +37125,10 @@
       <c r="AD156" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AE156" s="17" t="s">
+      <c r="AE156" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AF156" s="17" t="s">
+      <c r="AF156" s="18" t="s">
         <v>48</v>
       </c>
       <c r="AG156" s="2" t="s">
@@ -37069,100 +37139,100 @@
       <c r="A157" t="s">
         <v>15</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="11">
         <v>0.13605933632059208</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="15">
         <v>2.3097553983051976E-2</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="15">
         <v>8.008433055223722E-3</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="11">
         <v>6.2299333864817508E-2</v>
       </c>
-      <c r="F157" s="14">
+      <c r="F157" s="15">
         <v>6.7347494385463225E-2</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="11">
         <v>0.10912255495542629</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="15">
         <v>9.3248581758651958E-2</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="15">
         <v>8.3244921767036434E-2</v>
       </c>
-      <c r="J157" s="10">
+      <c r="J157" s="11">
         <v>0.16184702654049579</v>
       </c>
-      <c r="K157" s="10">
+      <c r="K157" s="11">
         <v>0.27840213181655088</v>
       </c>
-      <c r="L157" s="14">
+      <c r="L157" s="15">
         <v>5.2368883891104829E-3</v>
       </c>
-      <c r="M157" s="14">
+      <c r="M157" s="15">
         <v>2.85534586346383E-3</v>
       </c>
-      <c r="N157" s="14">
+      <c r="N157" s="15">
         <v>7.3218938806841508E-2</v>
       </c>
-      <c r="O157" s="14">
+      <c r="O157" s="15">
         <v>2.6975915183733794E-3</v>
       </c>
-      <c r="P157" s="10">
+      <c r="P157" s="11">
         <v>0.3031714564400812</v>
       </c>
-      <c r="Q157" s="13">
+      <c r="Q157" s="14">
         <v>9.2749948787047856E-2</v>
       </c>
-      <c r="R157" s="13">
+      <c r="R157" s="14">
         <v>7.1611891470620997E-2</v>
       </c>
-      <c r="S157" s="13">
+      <c r="S157" s="14">
         <v>0.13776043699117682</v>
       </c>
-      <c r="T157" s="13">
+      <c r="T157" s="14">
         <v>4.9614393072978318E-2</v>
       </c>
-      <c r="U157" s="13">
+      <c r="U157" s="14">
         <v>6.1706377304132844E-2</v>
       </c>
-      <c r="V157" s="13">
+      <c r="V157" s="14">
         <v>3.4701181536080282E-2</v>
       </c>
-      <c r="W157" s="10">
+      <c r="W157" s="11">
         <v>0.19847670644183915</v>
       </c>
-      <c r="X157" s="10">
+      <c r="X157" s="11">
         <v>0.14581820188165806</v>
       </c>
-      <c r="Y157" s="10">
+      <c r="Y157" s="11">
         <v>0.3352230048788416</v>
       </c>
-      <c r="Z157" s="14">
+      <c r="Z157" s="15">
         <v>9.5162361256959163E-2</v>
       </c>
-      <c r="AA157" s="10">
+      <c r="AA157" s="11">
         <v>0.29310199248725699</v>
       </c>
-      <c r="AB157" s="10">
+      <c r="AB157" s="11">
         <v>0.13573806761553664</v>
       </c>
-      <c r="AC157" s="10">
+      <c r="AC157" s="11">
         <v>0.12370660047062962</v>
       </c>
-      <c r="AD157" s="10">
+      <c r="AD157" s="11">
         <v>0.10403701264453925</v>
       </c>
-      <c r="AE157" s="14">
+      <c r="AE157" s="15">
         <v>3.2060988755807263E-2</v>
       </c>
-      <c r="AF157" s="14">
+      <c r="AF157" s="15">
         <v>2.0316987965739403E-2</v>
       </c>
-      <c r="AG157" s="10">
+      <c r="AG157" s="11">
         <v>7.3204781264613605E-2</v>
       </c>
     </row>
@@ -37170,100 +37240,100 @@
       <c r="A158" t="s">
         <v>18</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="11">
         <v>0.17755197267279238</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="15">
         <v>3.7598758844763287E-3</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="15">
         <v>1.3481728375842619E-2</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="11">
         <v>8.812299926806845E-2</v>
       </c>
-      <c r="F158" s="14">
+      <c r="F158" s="15">
         <v>2.8409100654543794E-2</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="11">
         <v>6.7264938861192766E-2</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H158" s="15">
         <v>0.12607713908556145</v>
       </c>
-      <c r="I158" s="14">
+      <c r="I158" s="15">
         <v>3.369366409282315E-2</v>
       </c>
-      <c r="J158" s="10">
+      <c r="J158" s="11">
         <v>0.19947479038715649</v>
       </c>
-      <c r="K158" s="10">
+      <c r="K158" s="11">
         <v>0.20072075876699955</v>
       </c>
-      <c r="L158" s="14">
+      <c r="L158" s="15">
         <v>2.3043437243605827E-3</v>
       </c>
-      <c r="M158" s="14">
+      <c r="M158" s="15">
         <v>3.3941125496954288E-3</v>
       </c>
-      <c r="N158" s="14">
+      <c r="N158" s="15">
         <v>4.8476726374622289E-2</v>
       </c>
-      <c r="O158" s="14">
+      <c r="O158" s="15">
         <v>1.8929694486000915E-3</v>
       </c>
-      <c r="P158" s="10">
+      <c r="P158" s="11">
         <v>0.2674451308212582</v>
       </c>
-      <c r="Q158" s="13">
+      <c r="Q158" s="14">
         <v>5.0957649082350738E-2</v>
       </c>
-      <c r="R158" s="13">
+      <c r="R158" s="14">
         <v>3.5715374840536114E-2</v>
       </c>
-      <c r="S158" s="13">
+      <c r="S158" s="14">
         <v>0.14266502432855316</v>
       </c>
-      <c r="T158" s="13">
+      <c r="T158" s="14">
         <v>8.5960153559658109E-2</v>
       </c>
-      <c r="U158" s="13">
+      <c r="U158" s="14">
         <v>2.7208969109468309E-2</v>
       </c>
-      <c r="V158" s="13">
+      <c r="V158" s="14">
         <v>2.8987324816202007E-2</v>
       </c>
-      <c r="W158" s="10">
+      <c r="W158" s="11">
         <v>0.1029193980744155</v>
       </c>
-      <c r="X158" s="10">
+      <c r="X158" s="11">
         <v>9.4319732824049082E-2</v>
       </c>
-      <c r="Y158" s="10">
+      <c r="Y158" s="11">
         <v>9.689704845866047E-2</v>
       </c>
-      <c r="Z158" s="14">
+      <c r="Z158" s="15">
         <v>6.5382008228563923E-2</v>
       </c>
-      <c r="AA158" s="10">
+      <c r="AA158" s="11">
         <v>0.10775466579225236</v>
       </c>
-      <c r="AB158" s="10">
+      <c r="AB158" s="11">
         <v>0.18037011116035825</v>
       </c>
-      <c r="AC158" s="10">
+      <c r="AC158" s="11">
         <v>0.20138794154566464</v>
       </c>
-      <c r="AD158" s="10">
+      <c r="AD158" s="11">
         <v>0.14812860290976901</v>
       </c>
-      <c r="AE158" s="14">
+      <c r="AE158" s="15">
         <v>6.5360477354437993E-2</v>
       </c>
-      <c r="AF158" s="14">
+      <c r="AF158" s="15">
         <v>4.8807786264078801E-3</v>
       </c>
-      <c r="AG158" s="10">
+      <c r="AG158" s="11">
         <v>0.14529180293464589</v>
       </c>
     </row>
@@ -37271,100 +37341,100 @@
       <c r="A159" t="s">
         <v>90</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="11">
         <v>0.20948273675890342</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="15">
         <v>0</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="15">
         <v>1.3610731060453731E-2</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="11">
         <v>0.14765911756474781</v>
       </c>
-      <c r="F159" s="14">
+      <c r="F159" s="15">
         <v>6.4838260309789302E-3</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="11">
         <v>6.4119240482089293E-2</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H159" s="15">
         <v>5.7346897620243311E-3</v>
       </c>
-      <c r="I159" s="14">
+      <c r="I159" s="15">
         <v>5.5560777532356392E-3</v>
       </c>
-      <c r="J159" s="10">
+      <c r="J159" s="11">
         <v>0.22531766020443228</v>
       </c>
-      <c r="K159" s="10">
+      <c r="K159" s="11">
         <v>0.21270676293902832</v>
       </c>
-      <c r="L159" s="14">
+      <c r="L159" s="15">
         <v>2.302896726588784E-3</v>
       </c>
-      <c r="M159" s="14">
+      <c r="M159" s="15">
         <v>0</v>
       </c>
-      <c r="N159" s="14">
+      <c r="N159" s="15">
         <v>1.2332882874656679E-2</v>
       </c>
-      <c r="O159" s="14">
+      <c r="O159" s="15">
         <v>1.5556349186104043E-3</v>
       </c>
-      <c r="P159" s="10">
+      <c r="P159" s="11">
         <v>0.17427094709101687</v>
       </c>
-      <c r="Q159" s="13">
+      <c r="Q159" s="14">
         <v>9.229330961667806E-2</v>
       </c>
-      <c r="R159" s="13">
+      <c r="R159" s="14">
         <v>2.3601440633995208E-2</v>
       </c>
-      <c r="S159" s="13">
+      <c r="S159" s="14">
         <v>7.4011260404526717E-3</v>
       </c>
-      <c r="T159" s="13">
+      <c r="T159" s="14">
         <v>5.7639248780670282E-2</v>
       </c>
-      <c r="U159" s="13">
+      <c r="U159" s="14">
         <v>1.5000399994666807E-2</v>
       </c>
-      <c r="V159" s="13">
+      <c r="V159" s="14">
         <v>4.6991488591020423E-3</v>
       </c>
-      <c r="W159" s="10">
+      <c r="W159" s="11">
         <v>6.3872607587290506E-2</v>
       </c>
-      <c r="X159" s="10">
+      <c r="X159" s="11">
         <v>0.13257780734346156</v>
       </c>
-      <c r="Y159" s="10">
+      <c r="Y159" s="11">
         <v>4.1716387667198616E-2</v>
       </c>
-      <c r="Z159" s="14">
+      <c r="Z159" s="15">
         <v>6.3908137197073757E-3</v>
       </c>
-      <c r="AA159" s="10">
+      <c r="AA159" s="11">
         <v>4.3187532923287024E-2</v>
       </c>
-      <c r="AB159" s="10">
+      <c r="AB159" s="11">
         <v>2.5062481920192978E-2</v>
       </c>
-      <c r="AC159" s="10">
+      <c r="AC159" s="11">
         <v>0.14251907942447553</v>
       </c>
-      <c r="AD159" s="10">
+      <c r="AD159" s="11">
         <v>0.10553428352909776</v>
       </c>
-      <c r="AE159" s="14">
+      <c r="AE159" s="15">
         <v>3.4182890457069307E-2</v>
       </c>
-      <c r="AF159" s="14">
+      <c r="AF159" s="15">
         <v>2.1213203435596419E-4</v>
       </c>
-      <c r="AG159" s="10">
+      <c r="AG159" s="11">
         <v>8.3870095981821671E-2</v>
       </c>
     </row>
@@ -37372,100 +37442,100 @@
       <c r="A160" t="s">
         <v>91</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="11">
         <v>0.20127042753469779</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="15">
         <v>1.510794492973813E-3</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="15">
         <v>1.7961848457216198E-2</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="11">
         <v>0.10866306640252706</v>
       </c>
-      <c r="F160" s="14">
+      <c r="F160" s="15">
         <v>4.3815522363655525E-3</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="11">
         <v>6.3514384197597321E-2</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H160" s="15">
         <v>0.10571666535288243</v>
       </c>
-      <c r="I160" s="14">
+      <c r="I160" s="15">
         <v>4.4254943226717707E-3</v>
       </c>
-      <c r="J160" s="10">
+      <c r="J160" s="11">
         <v>0.22864781214785315</v>
       </c>
-      <c r="K160" s="10">
+      <c r="K160" s="11">
         <v>0.26371344675613345</v>
       </c>
-      <c r="L160" s="14">
+      <c r="L160" s="15">
         <v>2.1054690688775269E-3</v>
       </c>
-      <c r="M160" s="14">
+      <c r="M160" s="15">
         <v>0</v>
       </c>
-      <c r="N160" s="14">
+      <c r="N160" s="15">
         <v>2.9666928837792875E-2</v>
       </c>
-      <c r="O160" s="14">
+      <c r="O160" s="15">
         <v>5.6568542494923803E-4</v>
       </c>
-      <c r="P160" s="10">
+      <c r="P160" s="11">
         <v>0.26463155140685701</v>
       </c>
-      <c r="Q160" s="13">
+      <c r="Q160" s="14">
         <v>4.3086389962492797E-2</v>
       </c>
-      <c r="R160" s="13">
+      <c r="R160" s="14">
         <v>3.140323231770896E-2</v>
       </c>
-      <c r="S160" s="13">
+      <c r="S160" s="14">
         <v>9.4485708795916154E-2</v>
       </c>
-      <c r="T160" s="13">
+      <c r="T160" s="14">
         <v>5.8324634589511148E-2</v>
       </c>
-      <c r="U160" s="13">
+      <c r="U160" s="14">
         <v>8.6442466415529735E-3</v>
       </c>
-      <c r="V160" s="13">
+      <c r="V160" s="14">
         <v>9.1958142651969652E-3</v>
       </c>
-      <c r="W160" s="10">
+      <c r="W160" s="11">
         <v>0.10514190411058762</v>
       </c>
-      <c r="X160" s="10">
+      <c r="X160" s="11">
         <v>8.8745574537550886E-2</v>
       </c>
-      <c r="Y160" s="10">
+      <c r="Y160" s="11">
         <v>0.24324712331289752</v>
       </c>
-      <c r="Z160" s="14">
+      <c r="Z160" s="15">
         <v>1.3157013338900287E-2</v>
       </c>
-      <c r="AA160" s="10">
+      <c r="AA160" s="11">
         <v>0.10067369567071628</v>
       </c>
-      <c r="AB160" s="10">
+      <c r="AB160" s="11">
         <v>7.2025585731738381E-2</v>
       </c>
-      <c r="AC160" s="10">
+      <c r="AC160" s="11">
         <v>0.15995465607477652</v>
       </c>
-      <c r="AD160" s="10">
+      <c r="AD160" s="11">
         <v>0.10149548265809671</v>
       </c>
-      <c r="AE160" s="14">
+      <c r="AE160" s="15">
         <v>9.8989408524346678E-2</v>
       </c>
-      <c r="AF160" s="14">
+      <c r="AF160" s="15">
         <v>3.3501243758005937E-3</v>
       </c>
-      <c r="AG160" s="10">
+      <c r="AG160" s="11">
         <v>0.13031309220488929</v>
       </c>
     </row>
@@ -37473,100 +37543,100 @@
       <c r="A161" t="s">
         <v>17</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="11">
         <v>0.21370727175274121</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="15">
         <v>9.1043487777362018E-3</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="15">
         <v>1.2188314075375638E-2</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="11">
         <v>0.15282125833796811</v>
       </c>
-      <c r="F161" s="14">
+      <c r="F161" s="15">
         <v>5.1086201659547963E-3</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="11">
         <v>7.6789081255084657E-2</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H161" s="15">
         <v>0.13920935073957258</v>
       </c>
-      <c r="I161" s="14">
+      <c r="I161" s="15">
         <v>3.3637137214691748E-2</v>
       </c>
-      <c r="J161" s="10">
+      <c r="J161" s="11">
         <v>0.23604408486551817</v>
       </c>
-      <c r="K161" s="10">
+      <c r="K161" s="11">
         <v>0.13331967971758704</v>
       </c>
-      <c r="L161" s="14">
+      <c r="L161" s="15">
         <v>1.9155068954891984E-3</v>
       </c>
-      <c r="M161" s="14">
+      <c r="M161" s="15">
         <v>2.6564387187862377E-3</v>
       </c>
-      <c r="N161" s="14">
+      <c r="N161" s="15">
         <v>4.6754571968952947E-2</v>
       </c>
-      <c r="O161" s="14">
+      <c r="O161" s="15">
         <v>2.5073226092121982E-3</v>
       </c>
-      <c r="P161" s="10">
+      <c r="P161" s="11">
         <v>0.13024942226359396</v>
       </c>
-      <c r="Q161" s="13">
+      <c r="Q161" s="14">
         <v>8.4404845832452058E-2</v>
       </c>
-      <c r="R161" s="13">
+      <c r="R161" s="14">
         <v>5.8261505301528189E-2</v>
       </c>
-      <c r="S161" s="13">
+      <c r="S161" s="14">
         <v>9.8120792903441223E-2</v>
       </c>
-      <c r="T161" s="13">
+      <c r="T161" s="14">
         <v>8.096372644585971E-2</v>
       </c>
-      <c r="U161" s="13">
+      <c r="U161" s="14">
         <v>9.0168176204246196E-3</v>
       </c>
-      <c r="V161" s="13">
+      <c r="V161" s="14">
         <v>1.5464410755020704E-2</v>
       </c>
-      <c r="W161" s="10">
+      <c r="W161" s="11">
         <v>0.15268713763771985</v>
       </c>
-      <c r="X161" s="10">
+      <c r="X161" s="11">
         <v>0.17611889450027779</v>
       </c>
-      <c r="Y161" s="10">
+      <c r="Y161" s="11">
         <v>5.8819529069859128E-2</v>
       </c>
-      <c r="Z161" s="14">
+      <c r="Z161" s="15">
         <v>2.335654083977334E-2</v>
       </c>
-      <c r="AA161" s="10">
+      <c r="AA161" s="11">
         <v>5.3073420843205495E-2</v>
       </c>
-      <c r="AB161" s="10">
+      <c r="AB161" s="11">
         <v>0.13630035583225744</v>
       </c>
-      <c r="AC161" s="10">
+      <c r="AC161" s="11">
         <v>5.8719460147382128E-2</v>
       </c>
-      <c r="AD161" s="10">
+      <c r="AD161" s="11">
         <v>0.15499603220727942</v>
       </c>
-      <c r="AE161" s="14">
+      <c r="AE161" s="15">
         <v>6.4177698618756968E-2</v>
       </c>
-      <c r="AF161" s="14">
+      <c r="AF161" s="15">
         <v>3.3694707794152644E-3</v>
       </c>
-      <c r="AG161" s="10">
+      <c r="AG161" s="11">
         <v>0.13916708662611263</v>
       </c>
     </row>
@@ -37574,269 +37644,269 @@
       <c r="A162" t="s">
         <v>101</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="11">
         <f>AVERAGE(B157:B161)</f>
         <v>0.18761434900794538</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="15">
         <f t="shared" ref="C162:AG162" si="8">AVERAGE(C157:C161)</f>
         <v>7.4945146276476637E-3</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="15">
         <f t="shared" si="8"/>
         <v>1.3050211004822381E-2</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="11">
         <f t="shared" si="8"/>
         <v>0.11191315508762578</v>
       </c>
-      <c r="F162" s="14">
+      <c r="F162" s="15">
         <f t="shared" si="8"/>
         <v>2.2346118694661261E-2</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="11">
         <f t="shared" si="8"/>
         <v>7.6162039950278065E-2</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="15">
         <f t="shared" si="8"/>
         <v>9.3997285339738557E-2</v>
       </c>
-      <c r="I162" s="14">
+      <c r="I162" s="15">
         <f t="shared" si="8"/>
         <v>3.211145903009175E-2</v>
       </c>
-      <c r="J162" s="10">
+      <c r="J162" s="11">
         <f t="shared" si="8"/>
         <v>0.21026627482909119</v>
       </c>
-      <c r="K162" s="10">
+      <c r="K162" s="11">
         <f t="shared" si="8"/>
         <v>0.21777255599925988</v>
       </c>
-      <c r="L162" s="14">
+      <c r="L162" s="15">
         <f t="shared" si="8"/>
         <v>2.7730209608853155E-3</v>
       </c>
-      <c r="M162" s="14">
+      <c r="M162" s="15">
         <f t="shared" si="8"/>
         <v>1.7811794263890991E-3</v>
       </c>
-      <c r="N162" s="14">
+      <c r="N162" s="15">
         <f t="shared" si="8"/>
         <v>4.2090009772573253E-2</v>
       </c>
-      <c r="O162" s="14">
+      <c r="O162" s="15">
         <f t="shared" si="8"/>
         <v>1.8438407839490619E-3</v>
       </c>
-      <c r="P162" s="10">
+      <c r="P162" s="11">
         <f t="shared" si="8"/>
         <v>0.22795370160456141</v>
       </c>
-      <c r="Q162" s="13">
+      <c r="Q162" s="14">
         <f t="shared" si="8"/>
         <v>7.2698428656204309E-2</v>
       </c>
-      <c r="R162" s="13">
+      <c r="R162" s="14">
         <f t="shared" si="8"/>
         <v>4.4118688912877888E-2</v>
       </c>
-      <c r="S162" s="13">
+      <c r="S162" s="14">
         <f t="shared" si="8"/>
         <v>9.6086617811908012E-2</v>
       </c>
-      <c r="T162" s="13">
+      <c r="T162" s="14">
         <f t="shared" si="8"/>
         <v>6.6500431289735512E-2</v>
       </c>
-      <c r="U162" s="13">
+      <c r="U162" s="14">
         <f t="shared" si="8"/>
         <v>2.4315362134049112E-2</v>
       </c>
-      <c r="V162" s="13">
+      <c r="V162" s="14">
         <f t="shared" si="8"/>
         <v>1.8609576046320398E-2</v>
       </c>
-      <c r="W162" s="10">
+      <c r="W162" s="11">
         <f t="shared" si="8"/>
         <v>0.12461955077037053</v>
       </c>
-      <c r="X162" s="10">
+      <c r="X162" s="11">
         <f t="shared" si="8"/>
         <v>0.12751604221739948</v>
       </c>
-      <c r="Y162" s="10">
+      <c r="Y162" s="11">
         <f t="shared" si="8"/>
         <v>0.15518061867749147</v>
       </c>
-      <c r="Z162" s="14">
+      <c r="Z162" s="15">
         <f t="shared" si="8"/>
         <v>4.0689747476780821E-2</v>
       </c>
-      <c r="AA162" s="10">
+      <c r="AA162" s="11">
         <f t="shared" si="8"/>
         <v>0.11955826154334363</v>
       </c>
-      <c r="AB162" s="10">
+      <c r="AB162" s="11">
         <f t="shared" si="8"/>
         <v>0.10989932045201675</v>
       </c>
-      <c r="AC162" s="10">
+      <c r="AC162" s="11">
         <f t="shared" si="8"/>
         <v>0.13725754753258571</v>
       </c>
-      <c r="AD162" s="10">
+      <c r="AD162" s="11">
         <f t="shared" si="8"/>
         <v>0.12283828278975643</v>
       </c>
-      <c r="AE162" s="14">
+      <c r="AE162" s="15">
         <f t="shared" si="8"/>
         <v>5.8954292742083636E-2</v>
       </c>
-      <c r="AF162" s="14">
+      <c r="AF162" s="15">
         <f t="shared" si="8"/>
         <v>6.4258987563438202E-3</v>
       </c>
-      <c r="AG162" s="10">
+      <c r="AG162" s="11">
         <f t="shared" si="8"/>
         <v>0.11436937180241662</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="16"/>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="11">
         <f>AVERAGE(B3:B7,B34:B38,B64:B68,B95:B99,B126:B130)</f>
         <v>0.28716800000000003</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="15">
         <f t="shared" ref="C165:AG165" si="9">AVERAGE(C3:C7,C34:C38,C64:C68,C95:C99,C126:C130)</f>
         <v>8.1722222222222231E-3</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="15">
         <f t="shared" si="9"/>
         <v>1.7488E-2</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="11">
         <f t="shared" si="9"/>
         <v>0.20144799999999999</v>
       </c>
-      <c r="F165" s="14">
+      <c r="F165" s="15">
         <f t="shared" si="9"/>
         <v>2.3091304347826087E-2</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="11">
         <f t="shared" si="9"/>
         <v>0.17490800000000001</v>
       </c>
-      <c r="H165" s="16">
+      <c r="H165" s="17">
         <f t="shared" si="9"/>
         <v>6.5964705882352939E-2</v>
       </c>
-      <c r="I165" s="16">
+      <c r="I165" s="17">
         <f t="shared" si="9"/>
         <v>7.9824999999999993E-2</v>
       </c>
-      <c r="J165" s="10">
+      <c r="J165" s="11">
         <f t="shared" si="9"/>
         <v>0.43702399999999997</v>
       </c>
-      <c r="K165" s="10">
+      <c r="K165" s="11">
         <f t="shared" si="9"/>
         <v>0.39165200000000006</v>
       </c>
-      <c r="L165" s="14">
+      <c r="L165" s="15">
         <f t="shared" si="9"/>
         <v>1.1166666666666667E-2</v>
       </c>
-      <c r="M165" s="14">
+      <c r="M165" s="15">
         <f t="shared" si="9"/>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N165" s="14">
+      <c r="N165" s="15">
         <f t="shared" si="9"/>
         <v>2.4665217391304339E-2</v>
       </c>
-      <c r="O165" s="14">
+      <c r="O165" s="15">
         <f t="shared" si="9"/>
         <v>2.7235294117647058E-3</v>
       </c>
-      <c r="P165" s="10">
+      <c r="P165" s="11">
         <f t="shared" si="9"/>
         <v>0.33238400000000001</v>
       </c>
-      <c r="Q165" s="13">
+      <c r="Q165" s="14">
         <f t="shared" si="9"/>
         <v>7.1940000000000004E-2</v>
       </c>
-      <c r="R165" s="13">
+      <c r="R165" s="14">
         <f t="shared" si="9"/>
         <v>7.7492000000000005E-2</v>
       </c>
-      <c r="S165" s="13">
+      <c r="S165" s="14">
         <f t="shared" si="9"/>
         <v>5.3385000000000002E-2</v>
       </c>
-      <c r="T165" s="13">
+      <c r="T165" s="14">
         <f t="shared" si="9"/>
         <v>9.4063999999999995E-2</v>
       </c>
-      <c r="U165" s="13">
+      <c r="U165" s="14">
         <f t="shared" si="9"/>
         <v>3.6720000000000003E-2</v>
       </c>
-      <c r="V165" s="13">
+      <c r="V165" s="14">
         <f t="shared" si="9"/>
         <v>3.5143999999999995E-2</v>
       </c>
-      <c r="W165" s="10">
+      <c r="W165" s="11">
         <f t="shared" si="9"/>
         <v>0.12440000000000002</v>
       </c>
-      <c r="X165" s="10">
+      <c r="X165" s="11">
         <f t="shared" si="9"/>
         <v>0.19422799999999998</v>
       </c>
-      <c r="Y165" s="10">
+      <c r="Y165" s="11">
         <f t="shared" si="9"/>
         <v>0.198212</v>
       </c>
-      <c r="Z165" s="16">
+      <c r="Z165" s="17">
         <f t="shared" si="9"/>
         <v>5.5879166666666653E-2</v>
       </c>
-      <c r="AA165" s="10">
+      <c r="AA165" s="11">
         <f t="shared" si="9"/>
         <v>0.13966399999999998</v>
       </c>
-      <c r="AB165" s="10">
+      <c r="AB165" s="11">
         <f t="shared" si="9"/>
         <v>0.113888</v>
       </c>
-      <c r="AC165" s="10">
+      <c r="AC165" s="11">
         <f t="shared" si="9"/>
         <v>0.42435200000000006</v>
       </c>
-      <c r="AD165" s="10">
+      <c r="AD165" s="11">
         <f t="shared" si="9"/>
         <v>0.31127999999999995</v>
       </c>
-      <c r="AE165" s="16">
+      <c r="AE165" s="17">
         <f t="shared" si="9"/>
         <v>5.6844000000000013E-2</v>
       </c>
-      <c r="AF165" s="14">
+      <c r="AF165" s="15">
         <f t="shared" si="9"/>
         <v>9.6210526315789451E-3</v>
       </c>
-      <c r="AG165" s="10">
+      <c r="AG165" s="11">
         <f t="shared" si="9"/>
         <v>0.46188799999999991</v>
       </c>
@@ -37957,7 +38027,7 @@
       <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="4"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -37990,7 +38060,7 @@
       <c r="L3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -38026,7 +38096,7 @@
       <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -38059,7 +38129,7 @@
       <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -38104,7 +38174,7 @@
       <c r="P6" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -38137,7 +38207,7 @@
       <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -38170,7 +38240,7 @@
       <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -38206,7 +38276,7 @@
       <c r="M9" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -38242,7 +38312,7 @@
       <c r="M10" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -38278,7 +38348,7 @@
       <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -38314,7 +38384,7 @@
       <c r="M12" t="s">
         <v>67</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -38347,7 +38417,7 @@
       <c r="L13" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -38374,7 +38444,7 @@
       <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -38401,7 +38471,7 @@
       <c r="H15" t="s">
         <v>65</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -38431,7 +38501,7 @@
       <c r="K16" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -38440,7 +38510,7 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D17" t="s">
@@ -38461,7 +38531,7 @@
       <c r="K17" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -38470,7 +38540,7 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
@@ -38491,7 +38561,7 @@
       <c r="K18" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -38500,7 +38570,7 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
@@ -38521,7 +38591,7 @@
       <c r="K19" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -38530,7 +38600,7 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
@@ -38551,7 +38621,7 @@
       <c r="K20" t="s">
         <v>53</v>
       </c>
-      <c r="U20" s="4"/>
+      <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -38560,7 +38630,7 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
@@ -38581,7 +38651,7 @@
       <c r="K21" t="s">
         <v>55</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -38590,7 +38660,7 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
@@ -38611,7 +38681,7 @@
       <c r="K22" t="s">
         <v>75</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -38641,7 +38711,7 @@
       <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -38671,7 +38741,7 @@
       <c r="K24" t="s">
         <v>74</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -38704,7 +38774,7 @@
       <c r="K25" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -38734,7 +38804,7 @@
       <c r="K26" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="U26" s="5"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B27">
